--- a/Ressources/Nomenclature.xlsx
+++ b/Ressources/Nomenclature.xlsx
@@ -4,21 +4,22 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Matos" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="OU" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Groupe  Users" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="DATABASE" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="OU" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Groupe  Users" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="7Rh/4T0jX7FMkVb2Cavd4+Q6iC/DuNAUBXJKzj1pJSM="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="vsr7pbthGHQmks8MOLUFyCVSMvBuhbeEN+L0CQc/jPo="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="504">
   <si>
     <t>Exemple</t>
   </si>
@@ -302,6 +303,12 @@
     <t>PRINTER-MULTI-COM-01</t>
   </si>
   <si>
+    <t>GLPI</t>
+  </si>
+  <si>
+    <t>glpi_pharmgreen</t>
+  </si>
+  <si>
     <t>Organizaiton Units</t>
   </si>
   <si>
@@ -872,6 +879,15 @@
     <t>GRP_U_Externe_XXXX</t>
   </si>
   <si>
+    <t>Groupe Global</t>
+  </si>
+  <si>
+    <t>GRP_U_Users</t>
+  </si>
+  <si>
+    <t>Groupe global pour tout les utilisateurs</t>
+  </si>
+  <si>
     <t>NA</t>
   </si>
   <si>
@@ -1284,13 +1300,244 @@
   </si>
   <si>
     <t>GRP_U_Responsable_Service_Client</t>
+  </si>
+  <si>
+    <t>Groupe Computers</t>
+  </si>
+  <si>
+    <t>GRP_C_Alternant_XXXX</t>
+  </si>
+  <si>
+    <t>GRP_C_Stagiaire_XXXX</t>
+  </si>
+  <si>
+    <t>GRP_C_Externe_XXXX</t>
+  </si>
+  <si>
+    <t>GRP_C_Computers</t>
+  </si>
+  <si>
+    <t>Groupe global pour tout les Ordinateurs</t>
+  </si>
+  <si>
+    <t>GRP_C_Direction_Communication</t>
+  </si>
+  <si>
+    <t>GRP_C_Designer_Graphique</t>
+  </si>
+  <si>
+    <t>GRP_C_Photographe</t>
+  </si>
+  <si>
+    <t>GRP_C_Publicitaire</t>
+  </si>
+  <si>
+    <t>GRP_C_Responsable_Publicite</t>
+  </si>
+  <si>
+    <t>GRP_C_Webmaster</t>
+  </si>
+  <si>
+    <t>GRP_C_Charge_Communication</t>
+  </si>
+  <si>
+    <t>GRP_C_Charge_Presse</t>
+  </si>
+  <si>
+    <t>GRP_C_Charge_Droit_Communication</t>
+  </si>
+  <si>
+    <t>GRP_C_Responsable _Relation_Media</t>
+  </si>
+  <si>
+    <t>GRP_C_DAF</t>
+  </si>
+  <si>
+    <t>GRP_C_Analyste_Financier</t>
+  </si>
+  <si>
+    <t>GRP_C_Comptable</t>
+  </si>
+  <si>
+    <t>GRP_C_Controleur_Gestion</t>
+  </si>
+  <si>
+    <t>GRP_C_Assistant_Direction</t>
+  </si>
+  <si>
+    <t>GRP_C_Secretaire</t>
+  </si>
+  <si>
+    <t>GRP_C_Directeur_Adjoint</t>
+  </si>
+  <si>
+    <t>GRP_C_CEO</t>
+  </si>
+  <si>
+    <t>GRP_C_COMEX</t>
+  </si>
+  <si>
+    <t>GRP_C_CODIR</t>
+  </si>
+  <si>
+    <t>GRP_C_Community_Manager</t>
+  </si>
+  <si>
+    <t>GRP_C_Responsable_Marketing_Digital</t>
+  </si>
+  <si>
+    <t>GRP_C_Analyste_Web</t>
+  </si>
+  <si>
+    <t>GRP_C_Content_Manager</t>
+  </si>
+  <si>
+    <t>GRP_C_Charge_Promotion</t>
+  </si>
+  <si>
+    <t>GRP_C_Chef_Projet</t>
+  </si>
+  <si>
+    <t>GRP_C_Assistant_Marketing</t>
+  </si>
+  <si>
+    <t>GRP_C_Coordinateur_Marketing</t>
+  </si>
+  <si>
+    <t>GRP_C_Responsable_Marketing_Operationnel</t>
+  </si>
+  <si>
+    <t>GRP_C_Chef_Produit</t>
+  </si>
+  <si>
+    <t>GRP_C_Gestionaire_Marque</t>
+  </si>
+  <si>
+    <t>GRP_C_Responsable_Gamme</t>
+  </si>
+  <si>
+    <t>GRP_C_Direction_Marketing_Strategique</t>
+  </si>
+  <si>
+    <t>GRP_C_Analyste_Marketing</t>
+  </si>
+  <si>
+    <t>GRP_C_Chef_Produit_Strategique</t>
+  </si>
+  <si>
+    <t>GRP_C_Chercheur</t>
+  </si>
+  <si>
+    <t>GRP_C_Responsable_Recherche</t>
+  </si>
+  <si>
+    <t>GRP_C_Laborantin</t>
+  </si>
+  <si>
+    <t>GRP_C_Responsable_Laboratoire</t>
+  </si>
+  <si>
+    <t>GRP_C_Direction_RH</t>
+  </si>
+  <si>
+    <t>GRP_C_Direction_Adjoint_RH</t>
+  </si>
+  <si>
+    <t>GRP_C_Formateur</t>
+  </si>
+  <si>
+    <t>GRP_C_Agent_RH_GP</t>
+  </si>
+  <si>
+    <t>GRP_C_Agent_RH_REC</t>
+  </si>
+  <si>
+    <t>GRP_C_Animateur_securite</t>
+  </si>
+  <si>
+    <t>GRP_C_Auditeur</t>
+  </si>
+  <si>
+    <t>GRP_C_Technicien_HSE</t>
+  </si>
+  <si>
+    <t>GRP_C_Agent_logistique</t>
+  </si>
+  <si>
+    <t>GRP_C_Responsable_Logistique</t>
+  </si>
+  <si>
+    <t>GRP_C_Gestionnaire_immobilier</t>
+  </si>
+  <si>
+    <t>GRP_C_Data_Scientist</t>
+  </si>
+  <si>
+    <t>GRP_C_Developpeur</t>
+  </si>
+  <si>
+    <t>GRP_C_Direction_Informatique</t>
+  </si>
+  <si>
+    <t>GRP_C_Administrateur_Systemes_Reseaux</t>
+  </si>
+  <si>
+    <t>GRP_C_Juriste_CTR</t>
+  </si>
+  <si>
+    <t>GRP_C_Responsable_Juridique</t>
+  </si>
+  <si>
+    <t>GRP_C_Juriste_CTX</t>
+  </si>
+  <si>
+    <t>GRP_C_Gestionnaire_ADV</t>
+  </si>
+  <si>
+    <t>GRP_C_Responsable_ADV</t>
+  </si>
+  <si>
+    <t>GRP_C_Commercial_B2B</t>
+  </si>
+  <si>
+    <t>GRP_C_Responsable_B2B</t>
+  </si>
+  <si>
+    <t>GRP_C_Commercial_B2C</t>
+  </si>
+  <si>
+    <t>GRP_C_Responsable_B2C</t>
+  </si>
+  <si>
+    <t>GRP_C_Commercial_DI</t>
+  </si>
+  <si>
+    <t>GRP_C_Direction_Commercial_DI</t>
+  </si>
+  <si>
+    <t>GRP_C_Commercial_GC</t>
+  </si>
+  <si>
+    <t>GRP_C_Responsable_Grands_Comptes</t>
+  </si>
+  <si>
+    <t>GRP_C_Acheteur</t>
+  </si>
+  <si>
+    <t>GRP_C_Responsable_achat</t>
+  </si>
+  <si>
+    <t>GRP_C_Agent_Client</t>
+  </si>
+  <si>
+    <t>GRP_C_Responsable_Service_Client</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1309,6 +1556,11 @@
       <name val="Arial"/>
     </font>
     <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="10.0"/>
       <color rgb="FF0000FF"/>
@@ -1325,7 +1577,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1342,6 +1594,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCCCCCC"/>
         <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF00FF"/>
+        <bgColor rgb="FFFF00FF"/>
       </patternFill>
     </fill>
     <fill>
@@ -1733,7 +1991,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="111">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1807,13 +2065,16 @@
     <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1843,7 +2104,7 @@
     <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="18" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="18" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1855,40 +2116,40 @@
     <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="20" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="20" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="21" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="22" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center"/>
+    <xf borderId="12" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="4" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="23" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="21" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="22" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="13" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="24" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="23" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="4" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="22" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="24" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="4" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="23" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="13" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="22" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
@@ -1897,10 +2158,10 @@
     <xf borderId="4" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="23" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="23" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="13" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="22" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
@@ -1909,10 +2170,10 @@
     <xf borderId="4" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="23" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="23" fillId="8" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="13" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="8" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="22" fillId="9" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
@@ -1921,13 +2182,10 @@
     <xf borderId="4" fillId="9" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="23" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="23" fillId="9" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="13" fillId="9" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="13" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="9" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="22" fillId="10" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
@@ -1936,10 +2194,13 @@
     <xf borderId="4" fillId="10" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="23" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="23" fillId="10" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="13" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="10" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="13" fillId="10" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="22" fillId="11" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
@@ -1948,10 +2209,10 @@
     <xf borderId="4" fillId="11" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="23" fillId="11" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="23" fillId="11" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="13" fillId="11" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="11" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="22" fillId="12" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
@@ -1960,13 +2221,10 @@
     <xf borderId="4" fillId="12" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="23" fillId="12" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="23" fillId="12" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="13" fillId="12" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="4" fillId="12" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="12" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="22" fillId="13" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
@@ -1975,35 +2233,95 @@
     <xf borderId="4" fillId="13" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="23" fillId="13" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="23" fillId="13" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="13" fillId="13" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="13" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="4" fillId="13" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="22" fillId="14" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="4" fillId="14" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="23" fillId="14" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="13" fillId="14" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf borderId="4" fillId="14" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="25" fillId="14" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="23" fillId="14" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="26" fillId="14" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="14" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="15" fillId="14" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="22" fillId="15" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="4" fillId="15" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="23" fillId="15" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="13" fillId="15" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="4" fillId="15" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="25" fillId="15" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="26" fillId="15" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="15" fillId="15" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="13" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="13" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="13" fillId="8" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="13" fillId="9" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="13" fillId="10" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="13" fillId="10" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="13" fillId="11" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="13" fillId="12" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="13" fillId="13" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="13" fillId="14" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="13" fillId="15" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="15" fillId="15" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2022,6 +2340,10 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -10480,6 +10802,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="2">
+      <c r="A2" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="25"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
   <sheetViews>
@@ -10502,7 +10850,7 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="25"/>
+      <c r="E1" s="26"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -10532,7 +10880,7 @@
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="25"/>
+      <c r="E2" s="26"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -10562,7 +10910,7 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="25"/>
+      <c r="E3" s="26"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -10590,7 +10938,7 @@
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="25"/>
+      <c r="E4" s="26"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -10616,11 +10964,11 @@
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="25"/>
+      <c r="E5" s="26"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -10645,14 +10993,14 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>96</v>
+      <c r="B6" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>98</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="25"/>
+      <c r="E6" s="26"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -10677,14 +11025,14 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>98</v>
+      <c r="B7" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>100</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="25"/>
+      <c r="E7" s="26"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -10709,14 +11057,14 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>100</v>
+      <c r="B8" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>102</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="25"/>
+      <c r="E8" s="26"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -10744,7 +11092,7 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="25"/>
+      <c r="E9" s="26"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -10769,17 +11117,17 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="32" t="s">
-        <v>101</v>
+      <c r="B10" s="33" t="s">
+        <v>103</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -10805,7 +11153,7 @@
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>68</v>
@@ -10840,16 +11188,16 @@
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="17" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -10875,16 +11223,16 @@
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="17" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -10910,16 +11258,16 @@
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="17" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -10945,13 +11293,13 @@
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="17" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>63</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>79</v>
@@ -10980,16 +11328,16 @@
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="17" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -11015,16 +11363,16 @@
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="17" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -11050,16 +11398,16 @@
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="17" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -11085,16 +11433,16 @@
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="17" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -11120,16 +11468,16 @@
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="17" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="D20" s="33" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>138</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -11154,7 +11502,7 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="25"/>
+      <c r="B21" s="26"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -11181,9 +11529,9 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="25"/>
+      <c r="B22" s="26"/>
       <c r="C22" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -11210,8 +11558,8 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="32" t="s">
-        <v>101</v>
+      <c r="B23" s="33" t="s">
+        <v>103</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>52</v>
@@ -11220,7 +11568,7 @@
         <v>8</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -11246,16 +11594,16 @@
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="24" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -11281,16 +11629,16 @@
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="17" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -11315,7 +11663,7 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="1"/>
-      <c r="B26" s="25"/>
+      <c r="B26" s="26"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -11342,9 +11690,9 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="1"/>
-      <c r="B27" s="25"/>
+      <c r="B27" s="26"/>
       <c r="C27" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -11371,8 +11719,8 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="1"/>
-      <c r="B28" s="32" t="s">
-        <v>101</v>
+      <c r="B28" s="33" t="s">
+        <v>103</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>52</v>
@@ -11381,7 +11729,7 @@
         <v>8</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -11407,16 +11755,16 @@
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="24" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -11442,16 +11790,16 @@
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="24" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -11477,16 +11825,16 @@
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="17" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -11511,7 +11859,7 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="1"/>
-      <c r="B32" s="25"/>
+      <c r="B32" s="26"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -11538,9 +11886,9 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="25"/>
+      <c r="B33" s="26"/>
       <c r="C33" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -11567,8 +11915,8 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="1"/>
-      <c r="B34" s="32" t="s">
-        <v>101</v>
+      <c r="B34" s="33" t="s">
+        <v>103</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>52</v>
@@ -11577,7 +11925,7 @@
         <v>8</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -11603,16 +11951,16 @@
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="24" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -11638,16 +11986,16 @@
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="24" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -11673,16 +12021,16 @@
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="17" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -11708,16 +12056,16 @@
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="17" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -11742,7 +12090,7 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="1"/>
-      <c r="B39" s="25"/>
+      <c r="B39" s="26"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -11769,9 +12117,9 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="1"/>
-      <c r="B40" s="25"/>
+      <c r="B40" s="26"/>
       <c r="C40" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -11798,8 +12146,8 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="1"/>
-      <c r="B41" s="32" t="s">
-        <v>101</v>
+      <c r="B41" s="33" t="s">
+        <v>103</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>52</v>
@@ -11808,7 +12156,7 @@
         <v>8</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -11834,16 +12182,16 @@
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="24" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -11869,16 +12217,16 @@
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="17" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -11903,7 +12251,7 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="1"/>
-      <c r="B44" s="25"/>
+      <c r="B44" s="26"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -11930,9 +12278,9 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="1"/>
-      <c r="B45" s="25"/>
+      <c r="B45" s="26"/>
       <c r="C45" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -11959,8 +12307,8 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="1"/>
-      <c r="B46" s="32" t="s">
-        <v>101</v>
+      <c r="B46" s="33" t="s">
+        <v>103</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>52</v>
@@ -11969,7 +12317,7 @@
         <v>8</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -11995,16 +12343,16 @@
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="24" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
@@ -12030,16 +12378,16 @@
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="24" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
@@ -12065,16 +12413,16 @@
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
@@ -12100,16 +12448,16 @@
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="17" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -12134,7 +12482,7 @@
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="1"/>
-      <c r="B51" s="25"/>
+      <c r="B51" s="26"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -12161,9 +12509,9 @@
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="1"/>
-      <c r="B52" s="25"/>
+      <c r="B52" s="26"/>
       <c r="C52" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -12190,8 +12538,8 @@
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="1"/>
-      <c r="B53" s="32" t="s">
-        <v>101</v>
+      <c r="B53" s="33" t="s">
+        <v>103</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>52</v>
@@ -12200,7 +12548,7 @@
         <v>8</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
@@ -12226,16 +12574,16 @@
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="1"/>
       <c r="B54" s="24" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
@@ -12261,16 +12609,16 @@
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="17" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
@@ -12295,7 +12643,7 @@
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="1"/>
-      <c r="B56" s="25"/>
+      <c r="B56" s="26"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -12322,9 +12670,9 @@
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="1"/>
-      <c r="B57" s="25"/>
+      <c r="B57" s="26"/>
       <c r="C57" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -12351,8 +12699,8 @@
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="1"/>
-      <c r="B58" s="32" t="s">
-        <v>101</v>
+      <c r="B58" s="33" t="s">
+        <v>103</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>52</v>
@@ -12361,7 +12709,7 @@
         <v>8</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
@@ -12387,16 +12735,16 @@
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="1"/>
       <c r="B59" s="24" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
@@ -12422,16 +12770,16 @@
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="1"/>
       <c r="B60" s="17" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
@@ -12456,7 +12804,7 @@
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="1"/>
-      <c r="B61" s="25"/>
+      <c r="B61" s="26"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -12483,9 +12831,9 @@
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="1"/>
-      <c r="B62" s="25"/>
+      <c r="B62" s="26"/>
       <c r="C62" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -12512,8 +12860,8 @@
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="1"/>
-      <c r="B63" s="32" t="s">
-        <v>101</v>
+      <c r="B63" s="33" t="s">
+        <v>103</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>52</v>
@@ -12522,7 +12870,7 @@
         <v>8</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
@@ -12548,16 +12896,16 @@
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="24" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
@@ -12583,16 +12931,16 @@
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="1"/>
       <c r="B65" s="24" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
@@ -12618,16 +12966,16 @@
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="1"/>
       <c r="B66" s="17" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
@@ -12652,7 +13000,7 @@
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="1"/>
-      <c r="B67" s="25"/>
+      <c r="B67" s="26"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -12679,9 +13027,9 @@
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="1"/>
-      <c r="B68" s="25"/>
+      <c r="B68" s="26"/>
       <c r="C68" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -12708,8 +13056,8 @@
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="1"/>
-      <c r="B69" s="32" t="s">
-        <v>101</v>
+      <c r="B69" s="33" t="s">
+        <v>103</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>52</v>
@@ -12718,7 +13066,7 @@
         <v>8</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
@@ -12744,16 +13092,16 @@
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="1"/>
       <c r="B70" s="24" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
@@ -12779,16 +13127,16 @@
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="1"/>
       <c r="B71" s="24" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
@@ -12814,16 +13162,16 @@
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="1"/>
       <c r="B72" s="17" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
@@ -12849,16 +13197,16 @@
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="1"/>
       <c r="B73" s="24" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
@@ -12884,16 +13232,16 @@
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="1"/>
       <c r="B74" s="24" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
@@ -12919,16 +13267,16 @@
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="1"/>
       <c r="B75" s="17" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
@@ -12954,16 +13302,16 @@
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="1"/>
       <c r="B76" s="17" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
@@ -12991,7 +13339,7 @@
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
-      <c r="E77" s="25"/>
+      <c r="E77" s="26"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
@@ -13019,7 +13367,7 @@
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
-      <c r="E78" s="25"/>
+      <c r="E78" s="26"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
@@ -13047,7 +13395,7 @@
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
-      <c r="E79" s="25"/>
+      <c r="E79" s="26"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
@@ -13075,7 +13423,7 @@
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
-      <c r="E80" s="25"/>
+      <c r="E80" s="26"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
@@ -13103,7 +13451,7 @@
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
-      <c r="E81" s="25"/>
+      <c r="E81" s="26"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
@@ -13131,7 +13479,7 @@
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
-      <c r="E82" s="25"/>
+      <c r="E82" s="26"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
@@ -13159,7 +13507,7 @@
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
-      <c r="E83" s="25"/>
+      <c r="E83" s="26"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
@@ -13187,7 +13535,7 @@
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
-      <c r="E84" s="25"/>
+      <c r="E84" s="26"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
@@ -13215,7 +13563,7 @@
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
-      <c r="E85" s="25"/>
+      <c r="E85" s="26"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
@@ -13243,7 +13591,7 @@
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
-      <c r="E86" s="25"/>
+      <c r="E86" s="26"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
@@ -13271,7 +13619,7 @@
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
-      <c r="E87" s="25"/>
+      <c r="E87" s="26"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
@@ -13299,7 +13647,7 @@
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
-      <c r="E88" s="25"/>
+      <c r="E88" s="26"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
@@ -13327,7 +13675,7 @@
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
-      <c r="E89" s="25"/>
+      <c r="E89" s="26"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
@@ -13355,7 +13703,7 @@
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
-      <c r="E90" s="25"/>
+      <c r="E90" s="26"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
@@ -13383,7 +13731,7 @@
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
-      <c r="E91" s="25"/>
+      <c r="E91" s="26"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
@@ -13411,7 +13759,7 @@
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
-      <c r="E92" s="25"/>
+      <c r="E92" s="26"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
@@ -13439,7 +13787,7 @@
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
-      <c r="E93" s="25"/>
+      <c r="E93" s="26"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
@@ -13467,7 +13815,7 @@
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
-      <c r="E94" s="25"/>
+      <c r="E94" s="26"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
@@ -13495,7 +13843,7 @@
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
-      <c r="E95" s="25"/>
+      <c r="E95" s="26"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
@@ -13523,7 +13871,7 @@
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
-      <c r="E96" s="25"/>
+      <c r="E96" s="26"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
@@ -13551,7 +13899,7 @@
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
-      <c r="E97" s="25"/>
+      <c r="E97" s="26"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
@@ -13579,7 +13927,7 @@
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
-      <c r="E98" s="25"/>
+      <c r="E98" s="26"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
@@ -13607,7 +13955,7 @@
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
-      <c r="E99" s="25"/>
+      <c r="E99" s="26"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
@@ -13635,7 +13983,7 @@
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
-      <c r="E100" s="25"/>
+      <c r="E100" s="26"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
@@ -13663,7 +14011,7 @@
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
-      <c r="E101" s="25"/>
+      <c r="E101" s="26"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
@@ -13691,7 +14039,7 @@
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
-      <c r="E102" s="25"/>
+      <c r="E102" s="26"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
@@ -13719,7 +14067,7 @@
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
-      <c r="E103" s="25"/>
+      <c r="E103" s="26"/>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
@@ -13747,7 +14095,7 @@
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
-      <c r="E104" s="25"/>
+      <c r="E104" s="26"/>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
@@ -13775,7 +14123,7 @@
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
-      <c r="E105" s="25"/>
+      <c r="E105" s="26"/>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
@@ -13803,7 +14151,7 @@
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
-      <c r="E106" s="25"/>
+      <c r="E106" s="26"/>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
@@ -13831,7 +14179,7 @@
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
-      <c r="E107" s="25"/>
+      <c r="E107" s="26"/>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
@@ -13859,7 +14207,7 @@
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
-      <c r="E108" s="25"/>
+      <c r="E108" s="26"/>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
@@ -13887,7 +14235,7 @@
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
-      <c r="E109" s="25"/>
+      <c r="E109" s="26"/>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
@@ -13915,7 +14263,7 @@
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
-      <c r="E110" s="25"/>
+      <c r="E110" s="26"/>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
@@ -13943,7 +14291,7 @@
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
-      <c r="E111" s="25"/>
+      <c r="E111" s="26"/>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
@@ -13971,7 +14319,7 @@
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
-      <c r="E112" s="25"/>
+      <c r="E112" s="26"/>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
@@ -13999,7 +14347,7 @@
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
-      <c r="E113" s="25"/>
+      <c r="E113" s="26"/>
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
@@ -14027,7 +14375,7 @@
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
-      <c r="E114" s="25"/>
+      <c r="E114" s="26"/>
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
@@ -14055,7 +14403,7 @@
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
-      <c r="E115" s="25"/>
+      <c r="E115" s="26"/>
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
@@ -14083,7 +14431,7 @@
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
-      <c r="E116" s="25"/>
+      <c r="E116" s="26"/>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
@@ -14111,7 +14459,7 @@
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
-      <c r="E117" s="25"/>
+      <c r="E117" s="26"/>
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
@@ -14139,7 +14487,7 @@
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
-      <c r="E118" s="25"/>
+      <c r="E118" s="26"/>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
@@ -14167,7 +14515,7 @@
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
-      <c r="E119" s="25"/>
+      <c r="E119" s="26"/>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
@@ -14195,7 +14543,7 @@
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
-      <c r="E120" s="25"/>
+      <c r="E120" s="26"/>
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
@@ -14223,7 +14571,7 @@
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
-      <c r="E121" s="25"/>
+      <c r="E121" s="26"/>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
@@ -14251,7 +14599,7 @@
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
-      <c r="E122" s="25"/>
+      <c r="E122" s="26"/>
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
@@ -14279,7 +14627,7 @@
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
-      <c r="E123" s="25"/>
+      <c r="E123" s="26"/>
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
@@ -14307,7 +14655,7 @@
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
-      <c r="E124" s="25"/>
+      <c r="E124" s="26"/>
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
@@ -14335,7 +14683,7 @@
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
-      <c r="E125" s="25"/>
+      <c r="E125" s="26"/>
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
@@ -14363,7 +14711,7 @@
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
-      <c r="E126" s="25"/>
+      <c r="E126" s="26"/>
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
@@ -14391,7 +14739,7 @@
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
-      <c r="E127" s="25"/>
+      <c r="E127" s="26"/>
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
@@ -14419,7 +14767,7 @@
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
-      <c r="E128" s="25"/>
+      <c r="E128" s="26"/>
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
@@ -14447,7 +14795,7 @@
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
-      <c r="E129" s="25"/>
+      <c r="E129" s="26"/>
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
@@ -14475,7 +14823,7 @@
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
-      <c r="E130" s="25"/>
+      <c r="E130" s="26"/>
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
@@ -14503,7 +14851,7 @@
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
-      <c r="E131" s="25"/>
+      <c r="E131" s="26"/>
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
@@ -14531,7 +14879,7 @@
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
-      <c r="E132" s="25"/>
+      <c r="E132" s="26"/>
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
@@ -14559,7 +14907,7 @@
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
-      <c r="E133" s="25"/>
+      <c r="E133" s="26"/>
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
@@ -14587,7 +14935,7 @@
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
-      <c r="E134" s="25"/>
+      <c r="E134" s="26"/>
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
@@ -14615,7 +14963,7 @@
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
-      <c r="E135" s="25"/>
+      <c r="E135" s="26"/>
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
@@ -14643,7 +14991,7 @@
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
-      <c r="E136" s="25"/>
+      <c r="E136" s="26"/>
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
@@ -14671,7 +15019,7 @@
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
-      <c r="E137" s="25"/>
+      <c r="E137" s="26"/>
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
@@ -14699,7 +15047,7 @@
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
-      <c r="E138" s="25"/>
+      <c r="E138" s="26"/>
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
@@ -14727,7 +15075,7 @@
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
-      <c r="E139" s="25"/>
+      <c r="E139" s="26"/>
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
@@ -14755,7 +15103,7 @@
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
-      <c r="E140" s="25"/>
+      <c r="E140" s="26"/>
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
@@ -14783,7 +15131,7 @@
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
-      <c r="E141" s="25"/>
+      <c r="E141" s="26"/>
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
@@ -14811,7 +15159,7 @@
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
-      <c r="E142" s="25"/>
+      <c r="E142" s="26"/>
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
@@ -14839,7 +15187,7 @@
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
-      <c r="E143" s="25"/>
+      <c r="E143" s="26"/>
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
@@ -14867,7 +15215,7 @@
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
-      <c r="E144" s="25"/>
+      <c r="E144" s="26"/>
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
@@ -14895,7 +15243,7 @@
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
-      <c r="E145" s="25"/>
+      <c r="E145" s="26"/>
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
@@ -14923,7 +15271,7 @@
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
-      <c r="E146" s="25"/>
+      <c r="E146" s="26"/>
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
@@ -14951,7 +15299,7 @@
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
-      <c r="E147" s="25"/>
+      <c r="E147" s="26"/>
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
@@ -14979,7 +15327,7 @@
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
-      <c r="E148" s="25"/>
+      <c r="E148" s="26"/>
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
@@ -15007,7 +15355,7 @@
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
-      <c r="E149" s="25"/>
+      <c r="E149" s="26"/>
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
@@ -15035,7 +15383,7 @@
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
-      <c r="E150" s="25"/>
+      <c r="E150" s="26"/>
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
@@ -15063,7 +15411,7 @@
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
-      <c r="E151" s="25"/>
+      <c r="E151" s="26"/>
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
@@ -15091,7 +15439,7 @@
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
-      <c r="E152" s="25"/>
+      <c r="E152" s="26"/>
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
@@ -15119,7 +15467,7 @@
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
-      <c r="E153" s="25"/>
+      <c r="E153" s="26"/>
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
@@ -15147,7 +15495,7 @@
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
-      <c r="E154" s="25"/>
+      <c r="E154" s="26"/>
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
@@ -15175,7 +15523,7 @@
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
-      <c r="E155" s="25"/>
+      <c r="E155" s="26"/>
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
@@ -15203,7 +15551,7 @@
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
-      <c r="E156" s="25"/>
+      <c r="E156" s="26"/>
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
@@ -15231,7 +15579,7 @@
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
-      <c r="E157" s="25"/>
+      <c r="E157" s="26"/>
       <c r="F157" s="1"/>
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
@@ -15259,7 +15607,7 @@
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
-      <c r="E158" s="25"/>
+      <c r="E158" s="26"/>
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
@@ -15287,7 +15635,7 @@
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
-      <c r="E159" s="25"/>
+      <c r="E159" s="26"/>
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
@@ -15315,7 +15663,7 @@
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
-      <c r="E160" s="25"/>
+      <c r="E160" s="26"/>
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
@@ -15343,7 +15691,7 @@
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
-      <c r="E161" s="25"/>
+      <c r="E161" s="26"/>
       <c r="F161" s="1"/>
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
@@ -15371,7 +15719,7 @@
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
-      <c r="E162" s="25"/>
+      <c r="E162" s="26"/>
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
@@ -15399,7 +15747,7 @@
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
-      <c r="E163" s="25"/>
+      <c r="E163" s="26"/>
       <c r="F163" s="1"/>
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
@@ -15427,7 +15775,7 @@
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
-      <c r="E164" s="25"/>
+      <c r="E164" s="26"/>
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
@@ -15455,7 +15803,7 @@
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
-      <c r="E165" s="25"/>
+      <c r="E165" s="26"/>
       <c r="F165" s="1"/>
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
@@ -15483,7 +15831,7 @@
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
-      <c r="E166" s="25"/>
+      <c r="E166" s="26"/>
       <c r="F166" s="1"/>
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
@@ -15511,7 +15859,7 @@
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
-      <c r="E167" s="25"/>
+      <c r="E167" s="26"/>
       <c r="F167" s="1"/>
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
@@ -15539,7 +15887,7 @@
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
-      <c r="E168" s="25"/>
+      <c r="E168" s="26"/>
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
@@ -15567,7 +15915,7 @@
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
-      <c r="E169" s="25"/>
+      <c r="E169" s="26"/>
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
@@ -15595,7 +15943,7 @@
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
-      <c r="E170" s="25"/>
+      <c r="E170" s="26"/>
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
@@ -15623,7 +15971,7 @@
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
-      <c r="E171" s="25"/>
+      <c r="E171" s="26"/>
       <c r="F171" s="1"/>
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
@@ -15651,7 +15999,7 @@
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
-      <c r="E172" s="25"/>
+      <c r="E172" s="26"/>
       <c r="F172" s="1"/>
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
@@ -15679,7 +16027,7 @@
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
-      <c r="E173" s="25"/>
+      <c r="E173" s="26"/>
       <c r="F173" s="1"/>
       <c r="G173" s="1"/>
       <c r="H173" s="1"/>
@@ -15707,7 +16055,7 @@
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
-      <c r="E174" s="25"/>
+      <c r="E174" s="26"/>
       <c r="F174" s="1"/>
       <c r="G174" s="1"/>
       <c r="H174" s="1"/>
@@ -15735,7 +16083,7 @@
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
-      <c r="E175" s="25"/>
+      <c r="E175" s="26"/>
       <c r="F175" s="1"/>
       <c r="G175" s="1"/>
       <c r="H175" s="1"/>
@@ -15763,7 +16111,7 @@
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
-      <c r="E176" s="25"/>
+      <c r="E176" s="26"/>
       <c r="F176" s="1"/>
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
@@ -15791,7 +16139,7 @@
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
-      <c r="E177" s="25"/>
+      <c r="E177" s="26"/>
       <c r="F177" s="1"/>
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
@@ -15819,7 +16167,7 @@
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
-      <c r="E178" s="25"/>
+      <c r="E178" s="26"/>
       <c r="F178" s="1"/>
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
@@ -15847,7 +16195,7 @@
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
-      <c r="E179" s="25"/>
+      <c r="E179" s="26"/>
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
@@ -15875,7 +16223,7 @@
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
-      <c r="E180" s="25"/>
+      <c r="E180" s="26"/>
       <c r="F180" s="1"/>
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
@@ -15903,7 +16251,7 @@
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
-      <c r="E181" s="25"/>
+      <c r="E181" s="26"/>
       <c r="F181" s="1"/>
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
@@ -15931,7 +16279,7 @@
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
-      <c r="E182" s="25"/>
+      <c r="E182" s="26"/>
       <c r="F182" s="1"/>
       <c r="G182" s="1"/>
       <c r="H182" s="1"/>
@@ -15959,7 +16307,7 @@
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
-      <c r="E183" s="25"/>
+      <c r="E183" s="26"/>
       <c r="F183" s="1"/>
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
@@ -15987,7 +16335,7 @@
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
-      <c r="E184" s="25"/>
+      <c r="E184" s="26"/>
       <c r="F184" s="1"/>
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
@@ -16015,7 +16363,7 @@
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
-      <c r="E185" s="25"/>
+      <c r="E185" s="26"/>
       <c r="F185" s="1"/>
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
@@ -16043,7 +16391,7 @@
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
-      <c r="E186" s="25"/>
+      <c r="E186" s="26"/>
       <c r="F186" s="1"/>
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
@@ -16071,7 +16419,7 @@
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
-      <c r="E187" s="25"/>
+      <c r="E187" s="26"/>
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
@@ -16099,7 +16447,7 @@
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
-      <c r="E188" s="25"/>
+      <c r="E188" s="26"/>
       <c r="F188" s="1"/>
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
@@ -16127,7 +16475,7 @@
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
-      <c r="E189" s="25"/>
+      <c r="E189" s="26"/>
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
@@ -16155,7 +16503,7 @@
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
-      <c r="E190" s="25"/>
+      <c r="E190" s="26"/>
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
@@ -16183,7 +16531,7 @@
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
-      <c r="E191" s="25"/>
+      <c r="E191" s="26"/>
       <c r="F191" s="1"/>
       <c r="G191" s="1"/>
       <c r="H191" s="1"/>
@@ -16211,7 +16559,7 @@
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
-      <c r="E192" s="25"/>
+      <c r="E192" s="26"/>
       <c r="F192" s="1"/>
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
@@ -16239,7 +16587,7 @@
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
-      <c r="E193" s="25"/>
+      <c r="E193" s="26"/>
       <c r="F193" s="1"/>
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
@@ -16267,7 +16615,7 @@
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
-      <c r="E194" s="25"/>
+      <c r="E194" s="26"/>
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
@@ -16295,7 +16643,7 @@
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
-      <c r="E195" s="25"/>
+      <c r="E195" s="26"/>
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
       <c r="H195" s="1"/>
@@ -16323,7 +16671,7 @@
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
-      <c r="E196" s="25"/>
+      <c r="E196" s="26"/>
       <c r="F196" s="1"/>
       <c r="G196" s="1"/>
       <c r="H196" s="1"/>
@@ -16351,7 +16699,7 @@
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
-      <c r="E197" s="25"/>
+      <c r="E197" s="26"/>
       <c r="F197" s="1"/>
       <c r="G197" s="1"/>
       <c r="H197" s="1"/>
@@ -16379,7 +16727,7 @@
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
-      <c r="E198" s="25"/>
+      <c r="E198" s="26"/>
       <c r="F198" s="1"/>
       <c r="G198" s="1"/>
       <c r="H198" s="1"/>
@@ -16407,7 +16755,7 @@
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
-      <c r="E199" s="25"/>
+      <c r="E199" s="26"/>
       <c r="F199" s="1"/>
       <c r="G199" s="1"/>
       <c r="H199" s="1"/>
@@ -16435,7 +16783,7 @@
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
-      <c r="E200" s="25"/>
+      <c r="E200" s="26"/>
       <c r="F200" s="1"/>
       <c r="G200" s="1"/>
       <c r="H200" s="1"/>
@@ -16463,7 +16811,7 @@
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
-      <c r="E201" s="25"/>
+      <c r="E201" s="26"/>
       <c r="F201" s="1"/>
       <c r="G201" s="1"/>
       <c r="H201" s="1"/>
@@ -16491,7 +16839,7 @@
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
-      <c r="E202" s="25"/>
+      <c r="E202" s="26"/>
       <c r="F202" s="1"/>
       <c r="G202" s="1"/>
       <c r="H202" s="1"/>
@@ -16519,7 +16867,7 @@
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
-      <c r="E203" s="25"/>
+      <c r="E203" s="26"/>
       <c r="F203" s="1"/>
       <c r="G203" s="1"/>
       <c r="H203" s="1"/>
@@ -16547,7 +16895,7 @@
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
-      <c r="E204" s="25"/>
+      <c r="E204" s="26"/>
       <c r="F204" s="1"/>
       <c r="G204" s="1"/>
       <c r="H204" s="1"/>
@@ -16575,7 +16923,7 @@
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
-      <c r="E205" s="25"/>
+      <c r="E205" s="26"/>
       <c r="F205" s="1"/>
       <c r="G205" s="1"/>
       <c r="H205" s="1"/>
@@ -16603,7 +16951,7 @@
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
-      <c r="E206" s="25"/>
+      <c r="E206" s="26"/>
       <c r="F206" s="1"/>
       <c r="G206" s="1"/>
       <c r="H206" s="1"/>
@@ -16631,7 +16979,7 @@
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
-      <c r="E207" s="25"/>
+      <c r="E207" s="26"/>
       <c r="F207" s="1"/>
       <c r="G207" s="1"/>
       <c r="H207" s="1"/>
@@ -16659,7 +17007,7 @@
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
-      <c r="E208" s="25"/>
+      <c r="E208" s="26"/>
       <c r="F208" s="1"/>
       <c r="G208" s="1"/>
       <c r="H208" s="1"/>
@@ -16687,7 +17035,7 @@
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
-      <c r="E209" s="25"/>
+      <c r="E209" s="26"/>
       <c r="F209" s="1"/>
       <c r="G209" s="1"/>
       <c r="H209" s="1"/>
@@ -16715,7 +17063,7 @@
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
-      <c r="E210" s="25"/>
+      <c r="E210" s="26"/>
       <c r="F210" s="1"/>
       <c r="G210" s="1"/>
       <c r="H210" s="1"/>
@@ -16743,7 +17091,7 @@
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
-      <c r="E211" s="25"/>
+      <c r="E211" s="26"/>
       <c r="F211" s="1"/>
       <c r="G211" s="1"/>
       <c r="H211" s="1"/>
@@ -16771,7 +17119,7 @@
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
-      <c r="E212" s="25"/>
+      <c r="E212" s="26"/>
       <c r="F212" s="1"/>
       <c r="G212" s="1"/>
       <c r="H212" s="1"/>
@@ -16799,7 +17147,7 @@
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
-      <c r="E213" s="25"/>
+      <c r="E213" s="26"/>
       <c r="F213" s="1"/>
       <c r="G213" s="1"/>
       <c r="H213" s="1"/>
@@ -16827,7 +17175,7 @@
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
-      <c r="E214" s="25"/>
+      <c r="E214" s="26"/>
       <c r="F214" s="1"/>
       <c r="G214" s="1"/>
       <c r="H214" s="1"/>
@@ -16855,7 +17203,7 @@
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
-      <c r="E215" s="25"/>
+      <c r="E215" s="26"/>
       <c r="F215" s="1"/>
       <c r="G215" s="1"/>
       <c r="H215" s="1"/>
@@ -16883,7 +17231,7 @@
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
-      <c r="E216" s="25"/>
+      <c r="E216" s="26"/>
       <c r="F216" s="1"/>
       <c r="G216" s="1"/>
       <c r="H216" s="1"/>
@@ -16911,7 +17259,7 @@
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
-      <c r="E217" s="25"/>
+      <c r="E217" s="26"/>
       <c r="F217" s="1"/>
       <c r="G217" s="1"/>
       <c r="H217" s="1"/>
@@ -16939,7 +17287,7 @@
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
-      <c r="E218" s="25"/>
+      <c r="E218" s="26"/>
       <c r="F218" s="1"/>
       <c r="G218" s="1"/>
       <c r="H218" s="1"/>
@@ -16967,7 +17315,7 @@
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
-      <c r="E219" s="25"/>
+      <c r="E219" s="26"/>
       <c r="F219" s="1"/>
       <c r="G219" s="1"/>
       <c r="H219" s="1"/>
@@ -16995,7 +17343,7 @@
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
-      <c r="E220" s="25"/>
+      <c r="E220" s="26"/>
       <c r="F220" s="1"/>
       <c r="G220" s="1"/>
       <c r="H220" s="1"/>
@@ -17023,7 +17371,7 @@
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
-      <c r="E221" s="25"/>
+      <c r="E221" s="26"/>
       <c r="F221" s="1"/>
       <c r="G221" s="1"/>
       <c r="H221" s="1"/>
@@ -17051,7 +17399,7 @@
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
-      <c r="E222" s="25"/>
+      <c r="E222" s="26"/>
       <c r="F222" s="1"/>
       <c r="G222" s="1"/>
       <c r="H222" s="1"/>
@@ -17079,7 +17427,7 @@
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
-      <c r="E223" s="25"/>
+      <c r="E223" s="26"/>
       <c r="F223" s="1"/>
       <c r="G223" s="1"/>
       <c r="H223" s="1"/>
@@ -17107,7 +17455,7 @@
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
-      <c r="E224" s="25"/>
+      <c r="E224" s="26"/>
       <c r="F224" s="1"/>
       <c r="G224" s="1"/>
       <c r="H224" s="1"/>
@@ -17135,7 +17483,7 @@
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
-      <c r="E225" s="25"/>
+      <c r="E225" s="26"/>
       <c r="F225" s="1"/>
       <c r="G225" s="1"/>
       <c r="H225" s="1"/>
@@ -17163,7 +17511,7 @@
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
-      <c r="E226" s="25"/>
+      <c r="E226" s="26"/>
       <c r="F226" s="1"/>
       <c r="G226" s="1"/>
       <c r="H226" s="1"/>
@@ -17191,7 +17539,7 @@
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
-      <c r="E227" s="25"/>
+      <c r="E227" s="26"/>
       <c r="F227" s="1"/>
       <c r="G227" s="1"/>
       <c r="H227" s="1"/>
@@ -17219,7 +17567,7 @@
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
-      <c r="E228" s="25"/>
+      <c r="E228" s="26"/>
       <c r="F228" s="1"/>
       <c r="G228" s="1"/>
       <c r="H228" s="1"/>
@@ -17247,7 +17595,7 @@
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
-      <c r="E229" s="25"/>
+      <c r="E229" s="26"/>
       <c r="F229" s="1"/>
       <c r="G229" s="1"/>
       <c r="H229" s="1"/>
@@ -17275,7 +17623,7 @@
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
-      <c r="E230" s="25"/>
+      <c r="E230" s="26"/>
       <c r="F230" s="1"/>
       <c r="G230" s="1"/>
       <c r="H230" s="1"/>
@@ -17303,7 +17651,7 @@
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
-      <c r="E231" s="25"/>
+      <c r="E231" s="26"/>
       <c r="F231" s="1"/>
       <c r="G231" s="1"/>
       <c r="H231" s="1"/>
@@ -17331,7 +17679,7 @@
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
-      <c r="E232" s="25"/>
+      <c r="E232" s="26"/>
       <c r="F232" s="1"/>
       <c r="G232" s="1"/>
       <c r="H232" s="1"/>
@@ -17359,7 +17707,7 @@
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
-      <c r="E233" s="25"/>
+      <c r="E233" s="26"/>
       <c r="F233" s="1"/>
       <c r="G233" s="1"/>
       <c r="H233" s="1"/>
@@ -17387,7 +17735,7 @@
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
-      <c r="E234" s="25"/>
+      <c r="E234" s="26"/>
       <c r="F234" s="1"/>
       <c r="G234" s="1"/>
       <c r="H234" s="1"/>
@@ -17415,7 +17763,7 @@
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
-      <c r="E235" s="25"/>
+      <c r="E235" s="26"/>
       <c r="F235" s="1"/>
       <c r="G235" s="1"/>
       <c r="H235" s="1"/>
@@ -17443,7 +17791,7 @@
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
-      <c r="E236" s="25"/>
+      <c r="E236" s="26"/>
       <c r="F236" s="1"/>
       <c r="G236" s="1"/>
       <c r="H236" s="1"/>
@@ -17471,7 +17819,7 @@
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
-      <c r="E237" s="25"/>
+      <c r="E237" s="26"/>
       <c r="F237" s="1"/>
       <c r="G237" s="1"/>
       <c r="H237" s="1"/>
@@ -17499,7 +17847,7 @@
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
-      <c r="E238" s="25"/>
+      <c r="E238" s="26"/>
       <c r="F238" s="1"/>
       <c r="G238" s="1"/>
       <c r="H238" s="1"/>
@@ -17527,7 +17875,7 @@
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
-      <c r="E239" s="25"/>
+      <c r="E239" s="26"/>
       <c r="F239" s="1"/>
       <c r="G239" s="1"/>
       <c r="H239" s="1"/>
@@ -17555,7 +17903,7 @@
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
-      <c r="E240" s="25"/>
+      <c r="E240" s="26"/>
       <c r="F240" s="1"/>
       <c r="G240" s="1"/>
       <c r="H240" s="1"/>
@@ -17583,7 +17931,7 @@
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
-      <c r="E241" s="25"/>
+      <c r="E241" s="26"/>
       <c r="F241" s="1"/>
       <c r="G241" s="1"/>
       <c r="H241" s="1"/>
@@ -17611,7 +17959,7 @@
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
-      <c r="E242" s="25"/>
+      <c r="E242" s="26"/>
       <c r="F242" s="1"/>
       <c r="G242" s="1"/>
       <c r="H242" s="1"/>
@@ -17639,7 +17987,7 @@
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
-      <c r="E243" s="25"/>
+      <c r="E243" s="26"/>
       <c r="F243" s="1"/>
       <c r="G243" s="1"/>
       <c r="H243" s="1"/>
@@ -17667,7 +18015,7 @@
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
-      <c r="E244" s="25"/>
+      <c r="E244" s="26"/>
       <c r="F244" s="1"/>
       <c r="G244" s="1"/>
       <c r="H244" s="1"/>
@@ -17695,7 +18043,7 @@
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
-      <c r="E245" s="25"/>
+      <c r="E245" s="26"/>
       <c r="F245" s="1"/>
       <c r="G245" s="1"/>
       <c r="H245" s="1"/>
@@ -17723,7 +18071,7 @@
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
-      <c r="E246" s="25"/>
+      <c r="E246" s="26"/>
       <c r="F246" s="1"/>
       <c r="G246" s="1"/>
       <c r="H246" s="1"/>
@@ -17751,7 +18099,7 @@
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
-      <c r="E247" s="25"/>
+      <c r="E247" s="26"/>
       <c r="F247" s="1"/>
       <c r="G247" s="1"/>
       <c r="H247" s="1"/>
@@ -17779,7 +18127,7 @@
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
-      <c r="E248" s="25"/>
+      <c r="E248" s="26"/>
       <c r="F248" s="1"/>
       <c r="G248" s="1"/>
       <c r="H248" s="1"/>
@@ -17807,7 +18155,7 @@
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
-      <c r="E249" s="25"/>
+      <c r="E249" s="26"/>
       <c r="F249" s="1"/>
       <c r="G249" s="1"/>
       <c r="H249" s="1"/>
@@ -17835,7 +18183,7 @@
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
-      <c r="E250" s="25"/>
+      <c r="E250" s="26"/>
       <c r="F250" s="1"/>
       <c r="G250" s="1"/>
       <c r="H250" s="1"/>
@@ -17863,7 +18211,7 @@
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
-      <c r="E251" s="25"/>
+      <c r="E251" s="26"/>
       <c r="F251" s="1"/>
       <c r="G251" s="1"/>
       <c r="H251" s="1"/>
@@ -17891,7 +18239,7 @@
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
-      <c r="E252" s="25"/>
+      <c r="E252" s="26"/>
       <c r="F252" s="1"/>
       <c r="G252" s="1"/>
       <c r="H252" s="1"/>
@@ -17919,7 +18267,7 @@
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
-      <c r="E253" s="25"/>
+      <c r="E253" s="26"/>
       <c r="F253" s="1"/>
       <c r="G253" s="1"/>
       <c r="H253" s="1"/>
@@ -17947,7 +18295,7 @@
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
-      <c r="E254" s="25"/>
+      <c r="E254" s="26"/>
       <c r="F254" s="1"/>
       <c r="G254" s="1"/>
       <c r="H254" s="1"/>
@@ -17975,7 +18323,7 @@
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
-      <c r="E255" s="25"/>
+      <c r="E255" s="26"/>
       <c r="F255" s="1"/>
       <c r="G255" s="1"/>
       <c r="H255" s="1"/>
@@ -18003,7 +18351,7 @@
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
-      <c r="E256" s="25"/>
+      <c r="E256" s="26"/>
       <c r="F256" s="1"/>
       <c r="G256" s="1"/>
       <c r="H256" s="1"/>
@@ -18031,7 +18379,7 @@
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
-      <c r="E257" s="25"/>
+      <c r="E257" s="26"/>
       <c r="F257" s="1"/>
       <c r="G257" s="1"/>
       <c r="H257" s="1"/>
@@ -18059,7 +18407,7 @@
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
-      <c r="E258" s="25"/>
+      <c r="E258" s="26"/>
       <c r="F258" s="1"/>
       <c r="G258" s="1"/>
       <c r="H258" s="1"/>
@@ -18087,7 +18435,7 @@
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
-      <c r="E259" s="25"/>
+      <c r="E259" s="26"/>
       <c r="F259" s="1"/>
       <c r="G259" s="1"/>
       <c r="H259" s="1"/>
@@ -18115,7 +18463,7 @@
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
-      <c r="E260" s="25"/>
+      <c r="E260" s="26"/>
       <c r="F260" s="1"/>
       <c r="G260" s="1"/>
       <c r="H260" s="1"/>
@@ -18143,7 +18491,7 @@
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
-      <c r="E261" s="25"/>
+      <c r="E261" s="26"/>
       <c r="F261" s="1"/>
       <c r="G261" s="1"/>
       <c r="H261" s="1"/>
@@ -18171,7 +18519,7 @@
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
-      <c r="E262" s="25"/>
+      <c r="E262" s="26"/>
       <c r="F262" s="1"/>
       <c r="G262" s="1"/>
       <c r="H262" s="1"/>
@@ -18199,7 +18547,7 @@
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
-      <c r="E263" s="25"/>
+      <c r="E263" s="26"/>
       <c r="F263" s="1"/>
       <c r="G263" s="1"/>
       <c r="H263" s="1"/>
@@ -18227,7 +18575,7 @@
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
-      <c r="E264" s="25"/>
+      <c r="E264" s="26"/>
       <c r="F264" s="1"/>
       <c r="G264" s="1"/>
       <c r="H264" s="1"/>
@@ -18255,7 +18603,7 @@
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
-      <c r="E265" s="25"/>
+      <c r="E265" s="26"/>
       <c r="F265" s="1"/>
       <c r="G265" s="1"/>
       <c r="H265" s="1"/>
@@ -18283,7 +18631,7 @@
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
-      <c r="E266" s="25"/>
+      <c r="E266" s="26"/>
       <c r="F266" s="1"/>
       <c r="G266" s="1"/>
       <c r="H266" s="1"/>
@@ -18311,7 +18659,7 @@
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
-      <c r="E267" s="25"/>
+      <c r="E267" s="26"/>
       <c r="F267" s="1"/>
       <c r="G267" s="1"/>
       <c r="H267" s="1"/>
@@ -18339,7 +18687,7 @@
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
-      <c r="E268" s="25"/>
+      <c r="E268" s="26"/>
       <c r="F268" s="1"/>
       <c r="G268" s="1"/>
       <c r="H268" s="1"/>
@@ -18367,7 +18715,7 @@
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
-      <c r="E269" s="25"/>
+      <c r="E269" s="26"/>
       <c r="F269" s="1"/>
       <c r="G269" s="1"/>
       <c r="H269" s="1"/>
@@ -18395,7 +18743,7 @@
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
-      <c r="E270" s="25"/>
+      <c r="E270" s="26"/>
       <c r="F270" s="1"/>
       <c r="G270" s="1"/>
       <c r="H270" s="1"/>
@@ -18423,7 +18771,7 @@
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
-      <c r="E271" s="25"/>
+      <c r="E271" s="26"/>
       <c r="F271" s="1"/>
       <c r="G271" s="1"/>
       <c r="H271" s="1"/>
@@ -18451,7 +18799,7 @@
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
-      <c r="E272" s="25"/>
+      <c r="E272" s="26"/>
       <c r="F272" s="1"/>
       <c r="G272" s="1"/>
       <c r="H272" s="1"/>
@@ -18479,7 +18827,7 @@
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
-      <c r="E273" s="25"/>
+      <c r="E273" s="26"/>
       <c r="F273" s="1"/>
       <c r="G273" s="1"/>
       <c r="H273" s="1"/>
@@ -18507,7 +18855,7 @@
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
-      <c r="E274" s="25"/>
+      <c r="E274" s="26"/>
       <c r="F274" s="1"/>
       <c r="G274" s="1"/>
       <c r="H274" s="1"/>
@@ -18535,7 +18883,7 @@
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
-      <c r="E275" s="25"/>
+      <c r="E275" s="26"/>
       <c r="F275" s="1"/>
       <c r="G275" s="1"/>
       <c r="H275" s="1"/>
@@ -18563,7 +18911,7 @@
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
-      <c r="E276" s="25"/>
+      <c r="E276" s="26"/>
       <c r="F276" s="1"/>
       <c r="G276" s="1"/>
       <c r="H276" s="1"/>
@@ -19321,7 +19669,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -19489,7 +19837,7 @@
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -19519,19 +19867,19 @@
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -19560,13 +19908,13 @@
         <v>38</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F8" s="23"/>
       <c r="G8" s="1"/>
@@ -19593,19 +19941,19 @@
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="8" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -19631,19 +19979,19 @@
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="11" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -19669,19 +20017,19 @@
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="11" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -19763,7 +20111,7 @@
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -19792,20 +20140,20 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="34" t="s">
-        <v>273</v>
-      </c>
-      <c r="C15" s="34" t="s">
-        <v>274</v>
-      </c>
-      <c r="D15" s="34" t="s">
+      <c r="B15" s="35" t="s">
         <v>275</v>
       </c>
-      <c r="E15" s="34" t="s">
+      <c r="C15" s="35" t="s">
+        <v>276</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>277</v>
+      </c>
+      <c r="E15" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="35" t="s">
-        <v>255</v>
+      <c r="F15" s="36" t="s">
+        <v>257</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -19830,20 +20178,20 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="36" t="s">
-        <v>276</v>
+      <c r="B16" s="37" t="s">
+        <v>278</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="D16" s="37" t="s">
-        <v>277</v>
-      </c>
-      <c r="E16" s="38" t="s">
         <v>278</v>
       </c>
-      <c r="F16" s="39" t="s">
+      <c r="D16" s="38" t="s">
         <v>279</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>280</v>
+      </c>
+      <c r="F16" s="40" t="s">
+        <v>281</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -19868,20 +20216,20 @@
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="40" t="s">
-        <v>276</v>
+      <c r="B17" s="41" t="s">
+        <v>278</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="D17" s="41" t="s">
-        <v>280</v>
-      </c>
-      <c r="E17" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>282</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="F17" s="43" t="s">
         <v>281</v>
-      </c>
-      <c r="F17" s="42" t="s">
-        <v>279</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -19906,20 +20254,20 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="40" t="s">
-        <v>276</v>
+      <c r="B18" s="41" t="s">
+        <v>278</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="D18" s="41" t="s">
-        <v>282</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>283</v>
-      </c>
-      <c r="F18" s="42" t="s">
-        <v>279</v>
+        <v>278</v>
+      </c>
+      <c r="D18" s="42" t="s">
+        <v>284</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="F18" s="43" t="s">
+        <v>281</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -19944,19 +20292,21 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="44" t="s">
-        <v>284</v>
+      <c r="B19" s="44" t="s">
+        <v>286</v>
+      </c>
+      <c r="C19" s="45" t="s">
+        <v>278</v>
       </c>
       <c r="D19" s="45" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="E19" s="46" t="s">
-        <v>286</v>
-      </c>
-      <c r="F19" s="47"/>
+        <v>287</v>
+      </c>
+      <c r="F19" s="47" t="s">
+        <v>288</v>
+      </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -19980,19 +20330,19 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="48" t="s">
-        <v>141</v>
-      </c>
-      <c r="D20" s="45" t="s">
-        <v>287</v>
-      </c>
-      <c r="E20" s="46" t="s">
-        <v>288</v>
-      </c>
-      <c r="F20" s="47"/>
+      <c r="C20" s="49" t="s">
+        <v>289</v>
+      </c>
+      <c r="D20" s="50" t="s">
+        <v>290</v>
+      </c>
+      <c r="E20" s="51" t="s">
+        <v>291</v>
+      </c>
+      <c r="F20" s="52"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -20016,19 +20366,19 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="48" t="s">
-        <v>141</v>
-      </c>
-      <c r="D21" s="45" t="s">
-        <v>289</v>
-      </c>
-      <c r="E21" s="46" t="s">
-        <v>290</v>
-      </c>
-      <c r="F21" s="47"/>
+      <c r="C21" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="D21" s="50" t="s">
+        <v>292</v>
+      </c>
+      <c r="E21" s="51" t="s">
+        <v>293</v>
+      </c>
+      <c r="F21" s="52"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -20052,19 +20402,19 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="48" t="s">
-        <v>141</v>
-      </c>
-      <c r="D22" s="45" t="s">
-        <v>291</v>
-      </c>
-      <c r="E22" s="46" t="s">
-        <v>292</v>
-      </c>
-      <c r="F22" s="47"/>
+      <c r="C22" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="D22" s="50" t="s">
+        <v>294</v>
+      </c>
+      <c r="E22" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="F22" s="52"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -20088,19 +20438,19 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="C23" s="48" t="s">
-        <v>141</v>
-      </c>
-      <c r="D23" s="45" t="s">
-        <v>293</v>
-      </c>
-      <c r="E23" s="46" t="s">
-        <v>294</v>
-      </c>
-      <c r="F23" s="47"/>
+      <c r="C23" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="D23" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="E23" s="51" t="s">
+        <v>297</v>
+      </c>
+      <c r="F23" s="52"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -20124,19 +20474,19 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="43" t="s">
+      <c r="B24" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="48" t="s">
-        <v>141</v>
-      </c>
-      <c r="D24" s="45" t="s">
-        <v>295</v>
-      </c>
-      <c r="E24" s="46" t="s">
-        <v>296</v>
-      </c>
-      <c r="F24" s="47"/>
+      <c r="C24" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="D24" s="50" t="s">
+        <v>298</v>
+      </c>
+      <c r="E24" s="51" t="s">
+        <v>299</v>
+      </c>
+      <c r="F24" s="52"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -20160,19 +20510,19 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="1"/>
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="44" t="s">
-        <v>145</v>
-      </c>
-      <c r="D25" s="45" t="s">
-        <v>297</v>
-      </c>
-      <c r="E25" s="46" t="s">
-        <v>298</v>
-      </c>
-      <c r="F25" s="47"/>
+      <c r="C25" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="D25" s="50" t="s">
+        <v>300</v>
+      </c>
+      <c r="E25" s="51" t="s">
+        <v>301</v>
+      </c>
+      <c r="F25" s="52"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -20196,19 +20546,19 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="1"/>
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="44" t="s">
-        <v>145</v>
-      </c>
-      <c r="D26" s="45" t="s">
-        <v>299</v>
-      </c>
-      <c r="E26" s="46" t="s">
-        <v>300</v>
-      </c>
-      <c r="F26" s="47"/>
+      <c r="C26" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="D26" s="50" t="s">
+        <v>302</v>
+      </c>
+      <c r="E26" s="51" t="s">
+        <v>303</v>
+      </c>
+      <c r="F26" s="52"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -20232,19 +20582,19 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="1"/>
-      <c r="B27" s="43" t="s">
+      <c r="B27" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="44" t="s">
-        <v>145</v>
-      </c>
-      <c r="D27" s="45" t="s">
-        <v>301</v>
-      </c>
-      <c r="E27" s="46" t="s">
-        <v>302</v>
-      </c>
-      <c r="F27" s="47"/>
+      <c r="C27" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="D27" s="50" t="s">
+        <v>304</v>
+      </c>
+      <c r="E27" s="51" t="s">
+        <v>305</v>
+      </c>
+      <c r="F27" s="52"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -20268,19 +20618,19 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="1"/>
-      <c r="B28" s="43" t="s">
+      <c r="B28" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="44" t="s">
-        <v>145</v>
-      </c>
-      <c r="D28" s="45" t="s">
-        <v>303</v>
-      </c>
-      <c r="E28" s="46" t="s">
-        <v>304</v>
-      </c>
-      <c r="F28" s="47"/>
+      <c r="C28" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="D28" s="50" t="s">
+        <v>306</v>
+      </c>
+      <c r="E28" s="51" t="s">
+        <v>307</v>
+      </c>
+      <c r="F28" s="52"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -20304,19 +20654,19 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="1"/>
-      <c r="B29" s="49" t="s">
-        <v>108</v>
-      </c>
-      <c r="C29" s="50" t="s">
-        <v>157</v>
-      </c>
-      <c r="D29" s="51" t="s">
-        <v>305</v>
-      </c>
-      <c r="E29" s="52" t="s">
-        <v>306</v>
-      </c>
-      <c r="F29" s="47"/>
+      <c r="B29" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="D29" s="50" t="s">
+        <v>308</v>
+      </c>
+      <c r="E29" s="51" t="s">
+        <v>309</v>
+      </c>
+      <c r="F29" s="52"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -20340,19 +20690,19 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="1"/>
-      <c r="B30" s="49" t="s">
-        <v>108</v>
-      </c>
-      <c r="C30" s="50" t="s">
-        <v>157</v>
-      </c>
-      <c r="D30" s="51" t="s">
-        <v>307</v>
-      </c>
-      <c r="E30" s="52" t="s">
-        <v>308</v>
-      </c>
-      <c r="F30" s="47"/>
+      <c r="B30" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" s="55" t="s">
+        <v>159</v>
+      </c>
+      <c r="D30" s="56" t="s">
+        <v>310</v>
+      </c>
+      <c r="E30" s="57" t="s">
+        <v>311</v>
+      </c>
+      <c r="F30" s="52"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -20376,19 +20726,19 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="1"/>
-      <c r="B31" s="49" t="s">
-        <v>108</v>
-      </c>
-      <c r="C31" s="50" t="s">
-        <v>154</v>
-      </c>
-      <c r="D31" s="51" t="s">
-        <v>309</v>
-      </c>
-      <c r="E31" s="52" t="s">
-        <v>310</v>
-      </c>
-      <c r="F31" s="47"/>
+      <c r="B31" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="C31" s="55" t="s">
+        <v>159</v>
+      </c>
+      <c r="D31" s="56" t="s">
+        <v>312</v>
+      </c>
+      <c r="E31" s="57" t="s">
+        <v>313</v>
+      </c>
+      <c r="F31" s="52"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -20412,19 +20762,19 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="1"/>
-      <c r="B32" s="49" t="s">
-        <v>108</v>
-      </c>
-      <c r="C32" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="D32" s="51" t="s">
-        <v>311</v>
-      </c>
-      <c r="E32" s="52" t="s">
-        <v>312</v>
-      </c>
-      <c r="F32" s="47"/>
+      <c r="B32" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="D32" s="56" t="s">
+        <v>314</v>
+      </c>
+      <c r="E32" s="57" t="s">
+        <v>315</v>
+      </c>
+      <c r="F32" s="52"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -20448,19 +20798,19 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="53" t="s">
-        <v>112</v>
-      </c>
-      <c r="C33" s="54" t="s">
-        <v>284</v>
-      </c>
-      <c r="D33" s="55" t="s">
-        <v>313</v>
-      </c>
-      <c r="E33" s="56" t="s">
-        <v>314</v>
-      </c>
-      <c r="F33" s="47"/>
+      <c r="B33" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" s="55" t="s">
+        <v>152</v>
+      </c>
+      <c r="D33" s="56" t="s">
+        <v>316</v>
+      </c>
+      <c r="E33" s="57" t="s">
+        <v>317</v>
+      </c>
+      <c r="F33" s="52"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -20484,19 +20834,19 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="1"/>
-      <c r="B34" s="53" t="s">
-        <v>112</v>
-      </c>
-      <c r="C34" s="54" t="s">
-        <v>284</v>
-      </c>
-      <c r="D34" s="55" t="s">
-        <v>315</v>
-      </c>
-      <c r="E34" s="56" t="s">
-        <v>316</v>
-      </c>
-      <c r="F34" s="47"/>
+      <c r="B34" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="C34" s="59" t="s">
+        <v>289</v>
+      </c>
+      <c r="D34" s="60" t="s">
+        <v>318</v>
+      </c>
+      <c r="E34" s="61" t="s">
+        <v>319</v>
+      </c>
+      <c r="F34" s="52"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -20520,19 +20870,19 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="1"/>
-      <c r="B35" s="53" t="s">
-        <v>112</v>
-      </c>
-      <c r="C35" s="54" t="s">
-        <v>284</v>
-      </c>
-      <c r="D35" s="55" t="s">
-        <v>317</v>
-      </c>
-      <c r="E35" s="56" t="s">
-        <v>318</v>
-      </c>
-      <c r="F35" s="47"/>
+      <c r="B35" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="C35" s="59" t="s">
+        <v>289</v>
+      </c>
+      <c r="D35" s="60" t="s">
+        <v>320</v>
+      </c>
+      <c r="E35" s="61" t="s">
+        <v>321</v>
+      </c>
+      <c r="F35" s="52"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -20556,19 +20906,19 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="1"/>
-      <c r="B36" s="53" t="s">
-        <v>112</v>
-      </c>
-      <c r="C36" s="54" t="s">
-        <v>284</v>
-      </c>
-      <c r="D36" s="55" t="s">
-        <v>319</v>
-      </c>
-      <c r="E36" s="56" t="s">
-        <v>320</v>
-      </c>
-      <c r="F36" s="47"/>
+      <c r="B36" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="C36" s="59" t="s">
+        <v>289</v>
+      </c>
+      <c r="D36" s="60" t="s">
+        <v>322</v>
+      </c>
+      <c r="E36" s="61" t="s">
+        <v>323</v>
+      </c>
+      <c r="F36" s="52"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -20592,19 +20942,19 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="1"/>
-      <c r="B37" s="53" t="s">
-        <v>112</v>
-      </c>
-      <c r="C37" s="54" t="s">
-        <v>284</v>
-      </c>
-      <c r="D37" s="55" t="s">
-        <v>321</v>
-      </c>
-      <c r="E37" s="56" t="s">
-        <v>322</v>
-      </c>
-      <c r="F37" s="47"/>
+      <c r="B37" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="C37" s="59" t="s">
+        <v>289</v>
+      </c>
+      <c r="D37" s="60" t="s">
+        <v>324</v>
+      </c>
+      <c r="E37" s="61" t="s">
+        <v>325</v>
+      </c>
+      <c r="F37" s="52"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -20628,19 +20978,19 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="1"/>
-      <c r="B38" s="53" t="s">
-        <v>112</v>
-      </c>
-      <c r="C38" s="54" t="s">
-        <v>284</v>
-      </c>
-      <c r="D38" s="55" t="s">
-        <v>323</v>
-      </c>
-      <c r="E38" s="56" t="s">
-        <v>324</v>
-      </c>
-      <c r="F38" s="47"/>
+      <c r="B38" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="C38" s="59" t="s">
+        <v>289</v>
+      </c>
+      <c r="D38" s="60" t="s">
+        <v>326</v>
+      </c>
+      <c r="E38" s="61" t="s">
+        <v>327</v>
+      </c>
+      <c r="F38" s="52"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -20664,19 +21014,19 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="1"/>
-      <c r="B39" s="57" t="s">
-        <v>116</v>
-      </c>
-      <c r="C39" s="58" t="s">
-        <v>162</v>
-      </c>
-      <c r="D39" s="59" t="s">
-        <v>325</v>
-      </c>
-      <c r="E39" s="60" t="s">
-        <v>326</v>
-      </c>
-      <c r="F39" s="47"/>
+      <c r="B39" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" s="59" t="s">
+        <v>289</v>
+      </c>
+      <c r="D39" s="60" t="s">
+        <v>328</v>
+      </c>
+      <c r="E39" s="61" t="s">
+        <v>329</v>
+      </c>
+      <c r="F39" s="52"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -20700,19 +21050,19 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="1"/>
-      <c r="B40" s="57" t="s">
-        <v>116</v>
-      </c>
-      <c r="C40" s="58" t="s">
-        <v>162</v>
-      </c>
-      <c r="D40" s="59" t="s">
-        <v>327</v>
-      </c>
-      <c r="E40" s="60" t="s">
-        <v>328</v>
-      </c>
-      <c r="F40" s="47"/>
+      <c r="B40" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" s="63" t="s">
+        <v>164</v>
+      </c>
+      <c r="D40" s="64" t="s">
+        <v>330</v>
+      </c>
+      <c r="E40" s="65" t="s">
+        <v>331</v>
+      </c>
+      <c r="F40" s="52"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -20736,19 +21086,19 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="1"/>
-      <c r="B41" s="57" t="s">
-        <v>116</v>
-      </c>
-      <c r="C41" s="58" t="s">
-        <v>162</v>
-      </c>
-      <c r="D41" s="59" t="s">
-        <v>329</v>
-      </c>
-      <c r="E41" s="60" t="s">
-        <v>330</v>
-      </c>
-      <c r="F41" s="47"/>
+      <c r="B41" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="C41" s="63" t="s">
+        <v>164</v>
+      </c>
+      <c r="D41" s="64" t="s">
+        <v>332</v>
+      </c>
+      <c r="E41" s="65" t="s">
+        <v>333</v>
+      </c>
+      <c r="F41" s="52"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -20772,19 +21122,19 @@
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="1"/>
-      <c r="B42" s="57" t="s">
-        <v>116</v>
-      </c>
-      <c r="C42" s="58" t="s">
-        <v>162</v>
-      </c>
-      <c r="D42" s="59" t="s">
-        <v>331</v>
-      </c>
-      <c r="E42" s="60" t="s">
-        <v>332</v>
-      </c>
-      <c r="F42" s="47"/>
+      <c r="B42" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="C42" s="63" t="s">
+        <v>164</v>
+      </c>
+      <c r="D42" s="64" t="s">
+        <v>334</v>
+      </c>
+      <c r="E42" s="65" t="s">
+        <v>335</v>
+      </c>
+      <c r="F42" s="52"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -20808,19 +21158,19 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="1"/>
-      <c r="B43" s="57" t="s">
-        <v>116</v>
-      </c>
-      <c r="C43" s="58" t="s">
-        <v>166</v>
-      </c>
-      <c r="D43" s="59" t="s">
-        <v>333</v>
-      </c>
-      <c r="E43" s="60" t="s">
-        <v>334</v>
-      </c>
-      <c r="F43" s="47"/>
+      <c r="B43" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="C43" s="63" t="s">
+        <v>164</v>
+      </c>
+      <c r="D43" s="64" t="s">
+        <v>336</v>
+      </c>
+      <c r="E43" s="65" t="s">
+        <v>337</v>
+      </c>
+      <c r="F43" s="52"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -20844,19 +21194,19 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="1"/>
-      <c r="B44" s="57" t="s">
-        <v>116</v>
-      </c>
-      <c r="C44" s="58" t="s">
-        <v>166</v>
-      </c>
-      <c r="D44" s="59" t="s">
-        <v>335</v>
-      </c>
-      <c r="E44" s="60" t="s">
-        <v>336</v>
-      </c>
-      <c r="F44" s="47"/>
+      <c r="B44" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="C44" s="63" t="s">
+        <v>168</v>
+      </c>
+      <c r="D44" s="64" t="s">
+        <v>338</v>
+      </c>
+      <c r="E44" s="65" t="s">
+        <v>339</v>
+      </c>
+      <c r="F44" s="52"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -20880,19 +21230,19 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="1"/>
-      <c r="B45" s="57" t="s">
-        <v>116</v>
-      </c>
-      <c r="C45" s="58" t="s">
-        <v>166</v>
-      </c>
-      <c r="D45" s="59" t="s">
-        <v>337</v>
-      </c>
-      <c r="E45" s="60" t="s">
-        <v>338</v>
-      </c>
-      <c r="F45" s="47"/>
+      <c r="B45" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="C45" s="63" t="s">
+        <v>168</v>
+      </c>
+      <c r="D45" s="64" t="s">
+        <v>340</v>
+      </c>
+      <c r="E45" s="65" t="s">
+        <v>341</v>
+      </c>
+      <c r="F45" s="52"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -20916,19 +21266,19 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="1"/>
-      <c r="B46" s="57" t="s">
-        <v>116</v>
-      </c>
-      <c r="C46" s="58" t="s">
-        <v>166</v>
-      </c>
-      <c r="D46" s="59" t="s">
-        <v>339</v>
-      </c>
-      <c r="E46" s="60" t="s">
-        <v>340</v>
-      </c>
-      <c r="F46" s="47"/>
+      <c r="B46" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" s="63" t="s">
+        <v>168</v>
+      </c>
+      <c r="D46" s="64" t="s">
+        <v>342</v>
+      </c>
+      <c r="E46" s="65" t="s">
+        <v>343</v>
+      </c>
+      <c r="F46" s="52"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
@@ -20952,19 +21302,19 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="1"/>
-      <c r="B47" s="57" t="s">
-        <v>116</v>
-      </c>
-      <c r="C47" s="58" t="s">
-        <v>166</v>
-      </c>
-      <c r="D47" s="59" t="s">
-        <v>341</v>
-      </c>
-      <c r="E47" s="60" t="s">
-        <v>342</v>
-      </c>
-      <c r="F47" s="47"/>
+      <c r="B47" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="C47" s="63" t="s">
+        <v>168</v>
+      </c>
+      <c r="D47" s="64" t="s">
+        <v>344</v>
+      </c>
+      <c r="E47" s="65" t="s">
+        <v>345</v>
+      </c>
+      <c r="F47" s="52"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
@@ -20988,19 +21338,19 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="1"/>
-      <c r="B48" s="57" t="s">
-        <v>116</v>
-      </c>
-      <c r="C48" s="58" t="s">
-        <v>170</v>
-      </c>
-      <c r="D48" s="59" t="s">
-        <v>343</v>
-      </c>
-      <c r="E48" s="60" t="s">
-        <v>344</v>
-      </c>
-      <c r="F48" s="47"/>
+      <c r="B48" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="C48" s="63" t="s">
+        <v>168</v>
+      </c>
+      <c r="D48" s="64" t="s">
+        <v>346</v>
+      </c>
+      <c r="E48" s="65" t="s">
+        <v>347</v>
+      </c>
+      <c r="F48" s="52"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
@@ -21024,19 +21374,19 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="1"/>
-      <c r="B49" s="57" t="s">
-        <v>116</v>
-      </c>
-      <c r="C49" s="58" t="s">
-        <v>170</v>
-      </c>
-      <c r="D49" s="59" t="s">
-        <v>345</v>
-      </c>
-      <c r="E49" s="60" t="s">
-        <v>346</v>
-      </c>
-      <c r="F49" s="47"/>
+      <c r="B49" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="C49" s="63" t="s">
+        <v>172</v>
+      </c>
+      <c r="D49" s="64" t="s">
+        <v>348</v>
+      </c>
+      <c r="E49" s="65" t="s">
+        <v>349</v>
+      </c>
+      <c r="F49" s="52"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
@@ -21060,19 +21410,19 @@
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="1"/>
-      <c r="B50" s="57" t="s">
-        <v>116</v>
-      </c>
-      <c r="C50" s="58" t="s">
-        <v>170</v>
-      </c>
-      <c r="D50" s="59" t="s">
-        <v>347</v>
-      </c>
-      <c r="E50" s="60" t="s">
-        <v>348</v>
-      </c>
-      <c r="F50" s="47"/>
+      <c r="B50" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="C50" s="63" t="s">
+        <v>172</v>
+      </c>
+      <c r="D50" s="64" t="s">
+        <v>350</v>
+      </c>
+      <c r="E50" s="65" t="s">
+        <v>351</v>
+      </c>
+      <c r="F50" s="52"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
@@ -21096,19 +21446,19 @@
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="1"/>
-      <c r="B51" s="57" t="s">
-        <v>116</v>
-      </c>
-      <c r="C51" s="58" t="s">
-        <v>174</v>
-      </c>
-      <c r="D51" s="59" t="s">
-        <v>349</v>
-      </c>
-      <c r="E51" s="60" t="s">
-        <v>350</v>
-      </c>
-      <c r="F51" s="47"/>
+      <c r="B51" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="C51" s="63" t="s">
+        <v>172</v>
+      </c>
+      <c r="D51" s="64" t="s">
+        <v>352</v>
+      </c>
+      <c r="E51" s="65" t="s">
+        <v>353</v>
+      </c>
+      <c r="F51" s="52"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
@@ -21132,19 +21482,19 @@
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="1"/>
-      <c r="B52" s="57" t="s">
-        <v>116</v>
-      </c>
-      <c r="C52" s="58" t="s">
-        <v>174</v>
-      </c>
-      <c r="D52" s="59" t="s">
-        <v>351</v>
-      </c>
-      <c r="E52" s="60" t="s">
-        <v>352</v>
-      </c>
-      <c r="F52" s="47"/>
+      <c r="B52" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="C52" s="63" t="s">
+        <v>176</v>
+      </c>
+      <c r="D52" s="64" t="s">
+        <v>354</v>
+      </c>
+      <c r="E52" s="65" t="s">
+        <v>355</v>
+      </c>
+      <c r="F52" s="52"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
@@ -21168,19 +21518,19 @@
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="1"/>
-      <c r="B53" s="57" t="s">
-        <v>116</v>
-      </c>
-      <c r="C53" s="58" t="s">
-        <v>174</v>
-      </c>
-      <c r="D53" s="59" t="s">
-        <v>353</v>
-      </c>
-      <c r="E53" s="60" t="s">
-        <v>354</v>
-      </c>
-      <c r="F53" s="47"/>
+      <c r="B53" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="C53" s="63" t="s">
+        <v>176</v>
+      </c>
+      <c r="D53" s="64" t="s">
+        <v>356</v>
+      </c>
+      <c r="E53" s="65" t="s">
+        <v>357</v>
+      </c>
+      <c r="F53" s="52"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
@@ -21204,19 +21554,19 @@
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="1"/>
-      <c r="B54" s="61" t="s">
-        <v>119</v>
-      </c>
-      <c r="C54" s="62" t="s">
-        <v>179</v>
-      </c>
-      <c r="D54" s="63" t="s">
-        <v>355</v>
-      </c>
-      <c r="E54" s="64" t="s">
-        <v>356</v>
-      </c>
-      <c r="F54" s="47"/>
+      <c r="B54" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="C54" s="63" t="s">
+        <v>176</v>
+      </c>
+      <c r="D54" s="64" t="s">
+        <v>358</v>
+      </c>
+      <c r="E54" s="65" t="s">
+        <v>359</v>
+      </c>
+      <c r="F54" s="52"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
@@ -21240,19 +21590,19 @@
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="1"/>
-      <c r="B55" s="61" t="s">
-        <v>119</v>
-      </c>
-      <c r="C55" s="62" t="s">
-        <v>179</v>
-      </c>
-      <c r="D55" s="63" t="s">
-        <v>357</v>
-      </c>
-      <c r="E55" s="65" t="s">
-        <v>358</v>
-      </c>
-      <c r="F55" s="47"/>
+      <c r="B55" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="C55" s="67" t="s">
+        <v>181</v>
+      </c>
+      <c r="D55" s="68" t="s">
+        <v>360</v>
+      </c>
+      <c r="E55" s="69" t="s">
+        <v>361</v>
+      </c>
+      <c r="F55" s="52"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
@@ -21276,19 +21626,19 @@
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="1"/>
-      <c r="B56" s="61" t="s">
-        <v>119</v>
-      </c>
-      <c r="C56" s="62" t="s">
-        <v>182</v>
-      </c>
-      <c r="D56" s="63" t="s">
-        <v>359</v>
-      </c>
-      <c r="E56" s="65" t="s">
-        <v>360</v>
-      </c>
-      <c r="F56" s="47"/>
+      <c r="B56" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="C56" s="67" t="s">
+        <v>181</v>
+      </c>
+      <c r="D56" s="68" t="s">
+        <v>362</v>
+      </c>
+      <c r="E56" s="70" t="s">
+        <v>363</v>
+      </c>
+      <c r="F56" s="52"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
@@ -21312,19 +21662,19 @@
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="1"/>
-      <c r="B57" s="61" t="s">
-        <v>119</v>
-      </c>
-      <c r="C57" s="62" t="s">
-        <v>182</v>
-      </c>
-      <c r="D57" s="63" t="s">
-        <v>361</v>
-      </c>
-      <c r="E57" s="65" t="s">
-        <v>362</v>
-      </c>
-      <c r="F57" s="47"/>
+      <c r="B57" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="C57" s="67" t="s">
+        <v>184</v>
+      </c>
+      <c r="D57" s="68" t="s">
+        <v>364</v>
+      </c>
+      <c r="E57" s="70" t="s">
+        <v>365</v>
+      </c>
+      <c r="F57" s="52"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
@@ -21349,18 +21699,18 @@
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="1"/>
       <c r="B58" s="66" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C58" s="67" t="s">
-        <v>284</v>
+        <v>184</v>
       </c>
       <c r="D58" s="68" t="s">
-        <v>363</v>
-      </c>
-      <c r="E58" s="69" t="s">
-        <v>364</v>
-      </c>
-      <c r="F58" s="47"/>
+        <v>366</v>
+      </c>
+      <c r="E58" s="70" t="s">
+        <v>367</v>
+      </c>
+      <c r="F58" s="52"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
@@ -21384,19 +21734,19 @@
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="1"/>
-      <c r="B59" s="66" t="s">
-        <v>122</v>
-      </c>
-      <c r="C59" s="67" t="s">
-        <v>284</v>
-      </c>
-      <c r="D59" s="68" t="s">
-        <v>365</v>
-      </c>
-      <c r="E59" s="69" t="s">
-        <v>366</v>
-      </c>
-      <c r="F59" s="47"/>
+      <c r="B59" s="71" t="s">
+        <v>124</v>
+      </c>
+      <c r="C59" s="72" t="s">
+        <v>289</v>
+      </c>
+      <c r="D59" s="73" t="s">
+        <v>368</v>
+      </c>
+      <c r="E59" s="74" t="s">
+        <v>369</v>
+      </c>
+      <c r="F59" s="52"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
@@ -21420,19 +21770,19 @@
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="1"/>
-      <c r="B60" s="66" t="s">
-        <v>122</v>
-      </c>
-      <c r="C60" s="67" t="s">
-        <v>186</v>
-      </c>
-      <c r="D60" s="68" t="s">
-        <v>367</v>
-      </c>
-      <c r="E60" s="69" t="s">
-        <v>368</v>
-      </c>
-      <c r="F60" s="47"/>
+      <c r="B60" s="71" t="s">
+        <v>124</v>
+      </c>
+      <c r="C60" s="72" t="s">
+        <v>289</v>
+      </c>
+      <c r="D60" s="73" t="s">
+        <v>370</v>
+      </c>
+      <c r="E60" s="74" t="s">
+        <v>371</v>
+      </c>
+      <c r="F60" s="52"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
@@ -21456,19 +21806,19 @@
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="1"/>
-      <c r="B61" s="66" t="s">
-        <v>122</v>
-      </c>
-      <c r="C61" s="67" t="s">
-        <v>190</v>
-      </c>
-      <c r="D61" s="68" t="s">
-        <v>369</v>
-      </c>
-      <c r="E61" s="69" t="s">
-        <v>370</v>
-      </c>
-      <c r="F61" s="47"/>
+      <c r="B61" s="71" t="s">
+        <v>124</v>
+      </c>
+      <c r="C61" s="72" t="s">
+        <v>188</v>
+      </c>
+      <c r="D61" s="73" t="s">
+        <v>372</v>
+      </c>
+      <c r="E61" s="74" t="s">
+        <v>373</v>
+      </c>
+      <c r="F61" s="52"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
@@ -21492,19 +21842,19 @@
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="1"/>
-      <c r="B62" s="66" t="s">
-        <v>122</v>
-      </c>
-      <c r="C62" s="67" t="s">
-        <v>193</v>
-      </c>
-      <c r="D62" s="68" t="s">
-        <v>369</v>
-      </c>
-      <c r="E62" s="69" t="s">
-        <v>371</v>
-      </c>
-      <c r="F62" s="47"/>
+      <c r="B62" s="71" t="s">
+        <v>124</v>
+      </c>
+      <c r="C62" s="72" t="s">
+        <v>192</v>
+      </c>
+      <c r="D62" s="73" t="s">
+        <v>374</v>
+      </c>
+      <c r="E62" s="74" t="s">
+        <v>375</v>
+      </c>
+      <c r="F62" s="52"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -21528,19 +21878,19 @@
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="1"/>
-      <c r="B63" s="66" t="s">
-        <v>122</v>
-      </c>
-      <c r="C63" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="D63" s="68" t="s">
-        <v>372</v>
-      </c>
-      <c r="E63" s="69" t="s">
-        <v>373</v>
-      </c>
-      <c r="F63" s="47"/>
+      <c r="B63" s="71" t="s">
+        <v>124</v>
+      </c>
+      <c r="C63" s="72" t="s">
+        <v>195</v>
+      </c>
+      <c r="D63" s="73" t="s">
+        <v>374</v>
+      </c>
+      <c r="E63" s="74" t="s">
+        <v>376</v>
+      </c>
+      <c r="F63" s="52"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
@@ -21564,19 +21914,19 @@
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="1"/>
-      <c r="B64" s="66" t="s">
-        <v>122</v>
-      </c>
-      <c r="C64" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="D64" s="68" t="s">
-        <v>374</v>
-      </c>
-      <c r="E64" s="69" t="s">
-        <v>375</v>
-      </c>
-      <c r="F64" s="47"/>
+      <c r="B64" s="71" t="s">
+        <v>124</v>
+      </c>
+      <c r="C64" s="72" t="s">
+        <v>199</v>
+      </c>
+      <c r="D64" s="73" t="s">
+        <v>377</v>
+      </c>
+      <c r="E64" s="74" t="s">
+        <v>378</v>
+      </c>
+      <c r="F64" s="52"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
@@ -21600,19 +21950,19 @@
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="1"/>
-      <c r="B65" s="66" t="s">
-        <v>122</v>
-      </c>
-      <c r="C65" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="D65" s="68" t="s">
-        <v>376</v>
-      </c>
-      <c r="E65" s="69" t="s">
-        <v>377</v>
-      </c>
-      <c r="F65" s="47"/>
+      <c r="B65" s="71" t="s">
+        <v>124</v>
+      </c>
+      <c r="C65" s="72" t="s">
+        <v>199</v>
+      </c>
+      <c r="D65" s="73" t="s">
+        <v>379</v>
+      </c>
+      <c r="E65" s="74" t="s">
+        <v>380</v>
+      </c>
+      <c r="F65" s="52"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
@@ -21636,19 +21986,19 @@
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="1"/>
-      <c r="B66" s="70" t="s">
-        <v>125</v>
-      </c>
-      <c r="C66" s="71" t="s">
-        <v>205</v>
-      </c>
-      <c r="D66" s="72" t="s">
-        <v>378</v>
-      </c>
-      <c r="E66" s="73" t="s">
-        <v>379</v>
-      </c>
-      <c r="F66" s="47"/>
+      <c r="B66" s="71" t="s">
+        <v>124</v>
+      </c>
+      <c r="C66" s="72" t="s">
+        <v>199</v>
+      </c>
+      <c r="D66" s="73" t="s">
+        <v>381</v>
+      </c>
+      <c r="E66" s="74" t="s">
+        <v>382</v>
+      </c>
+      <c r="F66" s="52"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
@@ -21672,19 +22022,19 @@
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="1"/>
-      <c r="B67" s="70" t="s">
-        <v>125</v>
-      </c>
-      <c r="C67" s="71" t="s">
-        <v>205</v>
-      </c>
-      <c r="D67" s="72" t="s">
-        <v>380</v>
-      </c>
-      <c r="E67" s="73" t="s">
-        <v>381</v>
-      </c>
-      <c r="F67" s="47"/>
+      <c r="B67" s="75" t="s">
+        <v>127</v>
+      </c>
+      <c r="C67" s="76" t="s">
+        <v>207</v>
+      </c>
+      <c r="D67" s="77" t="s">
+        <v>383</v>
+      </c>
+      <c r="E67" s="78" t="s">
+        <v>384</v>
+      </c>
+      <c r="F67" s="52"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
@@ -21708,19 +22058,19 @@
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="1"/>
-      <c r="B68" s="70" t="s">
-        <v>125</v>
-      </c>
-      <c r="C68" s="71" t="s">
-        <v>202</v>
-      </c>
-      <c r="D68" s="72" t="s">
-        <v>382</v>
-      </c>
-      <c r="E68" s="73" t="s">
-        <v>383</v>
-      </c>
-      <c r="F68" s="47"/>
+      <c r="B68" s="75" t="s">
+        <v>127</v>
+      </c>
+      <c r="C68" s="76" t="s">
+        <v>207</v>
+      </c>
+      <c r="D68" s="77" t="s">
+        <v>385</v>
+      </c>
+      <c r="E68" s="78" t="s">
+        <v>386</v>
+      </c>
+      <c r="F68" s="52"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
@@ -21744,19 +22094,19 @@
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="1"/>
-      <c r="B69" s="74" t="s">
-        <v>132</v>
-      </c>
-      <c r="C69" s="75" t="s">
-        <v>220</v>
-      </c>
-      <c r="D69" s="76" t="s">
-        <v>384</v>
-      </c>
-      <c r="E69" s="77" t="s">
-        <v>385</v>
-      </c>
-      <c r="F69" s="47"/>
+      <c r="B69" s="75" t="s">
+        <v>127</v>
+      </c>
+      <c r="C69" s="76" t="s">
+        <v>204</v>
+      </c>
+      <c r="D69" s="77" t="s">
+        <v>387</v>
+      </c>
+      <c r="E69" s="78" t="s">
+        <v>388</v>
+      </c>
+      <c r="F69" s="52"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
@@ -21780,19 +22130,19 @@
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="1"/>
-      <c r="B70" s="74" t="s">
-        <v>132</v>
-      </c>
-      <c r="C70" s="75" t="s">
-        <v>217</v>
-      </c>
-      <c r="D70" s="76" t="s">
-        <v>386</v>
-      </c>
-      <c r="E70" s="77" t="s">
-        <v>387</v>
-      </c>
-      <c r="F70" s="47"/>
+      <c r="B70" s="79" t="s">
+        <v>134</v>
+      </c>
+      <c r="C70" s="80" t="s">
+        <v>222</v>
+      </c>
+      <c r="D70" s="81" t="s">
+        <v>389</v>
+      </c>
+      <c r="E70" s="82" t="s">
+        <v>390</v>
+      </c>
+      <c r="F70" s="52"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
@@ -21816,19 +22166,19 @@
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="1"/>
-      <c r="B71" s="74" t="s">
-        <v>132</v>
-      </c>
-      <c r="C71" s="78" t="s">
-        <v>284</v>
-      </c>
-      <c r="D71" s="76" t="s">
-        <v>388</v>
-      </c>
-      <c r="E71" s="77" t="s">
-        <v>389</v>
-      </c>
-      <c r="F71" s="47"/>
+      <c r="B71" s="79" t="s">
+        <v>134</v>
+      </c>
+      <c r="C71" s="80" t="s">
+        <v>219</v>
+      </c>
+      <c r="D71" s="81" t="s">
+        <v>391</v>
+      </c>
+      <c r="E71" s="82" t="s">
+        <v>392</v>
+      </c>
+      <c r="F71" s="52"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
@@ -21852,19 +22202,19 @@
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="1"/>
-      <c r="B72" s="74" t="s">
-        <v>132</v>
-      </c>
-      <c r="C72" s="75" t="s">
-        <v>224</v>
-      </c>
-      <c r="D72" s="76" t="s">
-        <v>390</v>
-      </c>
-      <c r="E72" s="77" t="s">
-        <v>391</v>
-      </c>
-      <c r="F72" s="47"/>
+      <c r="B72" s="79" t="s">
+        <v>134</v>
+      </c>
+      <c r="C72" s="83" t="s">
+        <v>289</v>
+      </c>
+      <c r="D72" s="81" t="s">
+        <v>393</v>
+      </c>
+      <c r="E72" s="82" t="s">
+        <v>394</v>
+      </c>
+      <c r="F72" s="52"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
@@ -21889,18 +22239,18 @@
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="1"/>
       <c r="B73" s="79" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C73" s="80" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="D73" s="81" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="E73" s="82" t="s">
-        <v>393</v>
-      </c>
-      <c r="F73" s="47"/>
+        <v>396</v>
+      </c>
+      <c r="F73" s="52"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
@@ -21924,19 +22274,19 @@
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="1"/>
-      <c r="B74" s="79" t="s">
-        <v>129</v>
-      </c>
-      <c r="C74" s="80" t="s">
-        <v>209</v>
-      </c>
-      <c r="D74" s="81" t="s">
-        <v>394</v>
-      </c>
-      <c r="E74" s="82" t="s">
-        <v>395</v>
-      </c>
-      <c r="F74" s="47"/>
+      <c r="B74" s="84" t="s">
+        <v>131</v>
+      </c>
+      <c r="C74" s="85" t="s">
+        <v>211</v>
+      </c>
+      <c r="D74" s="86" t="s">
+        <v>397</v>
+      </c>
+      <c r="E74" s="87" t="s">
+        <v>398</v>
+      </c>
+      <c r="F74" s="52"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
@@ -21960,19 +22310,19 @@
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="1"/>
-      <c r="B75" s="79" t="s">
-        <v>129</v>
-      </c>
-      <c r="C75" s="80" t="s">
-        <v>212</v>
-      </c>
-      <c r="D75" s="81" t="s">
-        <v>392</v>
-      </c>
-      <c r="E75" s="82" t="s">
-        <v>396</v>
-      </c>
-      <c r="F75" s="47"/>
+      <c r="B75" s="84" t="s">
+        <v>131</v>
+      </c>
+      <c r="C75" s="85" t="s">
+        <v>211</v>
+      </c>
+      <c r="D75" s="86" t="s">
+        <v>399</v>
+      </c>
+      <c r="E75" s="87" t="s">
+        <v>400</v>
+      </c>
+      <c r="F75" s="52"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
@@ -21996,19 +22346,19 @@
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="1"/>
-      <c r="B76" s="83" t="s">
-        <v>136</v>
-      </c>
-      <c r="C76" s="84" t="s">
-        <v>228</v>
-      </c>
-      <c r="D76" s="85" t="s">
+      <c r="B76" s="84" t="s">
+        <v>131</v>
+      </c>
+      <c r="C76" s="85" t="s">
+        <v>214</v>
+      </c>
+      <c r="D76" s="86" t="s">
         <v>397</v>
       </c>
-      <c r="E76" s="86" t="s">
-        <v>398</v>
-      </c>
-      <c r="F76" s="47"/>
+      <c r="E76" s="87" t="s">
+        <v>401</v>
+      </c>
+      <c r="F76" s="52"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
@@ -22032,19 +22382,19 @@
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="1"/>
-      <c r="B77" s="83" t="s">
-        <v>136</v>
-      </c>
-      <c r="C77" s="84" t="s">
-        <v>228</v>
-      </c>
-      <c r="D77" s="85" t="s">
-        <v>399</v>
-      </c>
-      <c r="E77" s="86" t="s">
-        <v>400</v>
-      </c>
-      <c r="F77" s="47"/>
+      <c r="B77" s="88" t="s">
+        <v>138</v>
+      </c>
+      <c r="C77" s="89" t="s">
+        <v>230</v>
+      </c>
+      <c r="D77" s="90" t="s">
+        <v>402</v>
+      </c>
+      <c r="E77" s="91" t="s">
+        <v>403</v>
+      </c>
+      <c r="F77" s="52"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
@@ -22068,19 +22418,19 @@
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="1"/>
-      <c r="B78" s="83" t="s">
-        <v>136</v>
-      </c>
-      <c r="C78" s="84" t="s">
-        <v>231</v>
-      </c>
-      <c r="D78" s="85" t="s">
-        <v>401</v>
-      </c>
-      <c r="E78" s="86" t="s">
-        <v>402</v>
-      </c>
-      <c r="F78" s="47"/>
+      <c r="B78" s="88" t="s">
+        <v>138</v>
+      </c>
+      <c r="C78" s="89" t="s">
+        <v>230</v>
+      </c>
+      <c r="D78" s="90" t="s">
+        <v>404</v>
+      </c>
+      <c r="E78" s="91" t="s">
+        <v>405</v>
+      </c>
+      <c r="F78" s="52"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
@@ -22104,19 +22454,19 @@
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="1"/>
-      <c r="B79" s="83" t="s">
-        <v>136</v>
-      </c>
-      <c r="C79" s="84" t="s">
-        <v>231</v>
-      </c>
-      <c r="D79" s="85" t="s">
-        <v>403</v>
-      </c>
-      <c r="E79" s="86" t="s">
-        <v>404</v>
-      </c>
-      <c r="F79" s="47"/>
+      <c r="B79" s="88" t="s">
+        <v>138</v>
+      </c>
+      <c r="C79" s="89" t="s">
+        <v>233</v>
+      </c>
+      <c r="D79" s="90" t="s">
+        <v>406</v>
+      </c>
+      <c r="E79" s="91" t="s">
+        <v>407</v>
+      </c>
+      <c r="F79" s="52"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
@@ -22140,19 +22490,19 @@
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="1"/>
-      <c r="B80" s="83" t="s">
-        <v>136</v>
-      </c>
-      <c r="C80" s="84" t="s">
+      <c r="B80" s="88" t="s">
+        <v>138</v>
+      </c>
+      <c r="C80" s="89" t="s">
         <v>233</v>
       </c>
-      <c r="D80" s="85" t="s">
-        <v>401</v>
-      </c>
-      <c r="E80" s="86" t="s">
-        <v>405</v>
-      </c>
-      <c r="F80" s="47"/>
+      <c r="D80" s="90" t="s">
+        <v>408</v>
+      </c>
+      <c r="E80" s="91" t="s">
+        <v>409</v>
+      </c>
+      <c r="F80" s="52"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
@@ -22176,19 +22526,19 @@
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="1"/>
-      <c r="B81" s="83" t="s">
-        <v>136</v>
-      </c>
-      <c r="C81" s="84" t="s">
-        <v>233</v>
-      </c>
-      <c r="D81" s="85" t="s">
+      <c r="B81" s="88" t="s">
+        <v>138</v>
+      </c>
+      <c r="C81" s="89" t="s">
+        <v>235</v>
+      </c>
+      <c r="D81" s="90" t="s">
         <v>406</v>
       </c>
-      <c r="E81" s="86" t="s">
-        <v>407</v>
-      </c>
-      <c r="F81" s="47"/>
+      <c r="E81" s="91" t="s">
+        <v>410</v>
+      </c>
+      <c r="F81" s="52"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
@@ -22212,19 +22562,19 @@
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="1"/>
-      <c r="B82" s="83" t="s">
-        <v>136</v>
-      </c>
-      <c r="C82" s="87" t="s">
-        <v>236</v>
-      </c>
-      <c r="D82" s="85" t="s">
-        <v>401</v>
-      </c>
-      <c r="E82" s="86" t="s">
-        <v>408</v>
-      </c>
-      <c r="F82" s="47"/>
+      <c r="B82" s="88" t="s">
+        <v>138</v>
+      </c>
+      <c r="C82" s="89" t="s">
+        <v>235</v>
+      </c>
+      <c r="D82" s="90" t="s">
+        <v>411</v>
+      </c>
+      <c r="E82" s="91" t="s">
+        <v>412</v>
+      </c>
+      <c r="F82" s="52"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
@@ -22248,19 +22598,19 @@
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="1"/>
-      <c r="B83" s="83" t="s">
-        <v>136</v>
-      </c>
-      <c r="C83" s="87" t="s">
-        <v>236</v>
-      </c>
-      <c r="D83" s="85" t="s">
-        <v>409</v>
-      </c>
-      <c r="E83" s="86" t="s">
-        <v>410</v>
-      </c>
-      <c r="F83" s="47"/>
+      <c r="B83" s="88" t="s">
+        <v>138</v>
+      </c>
+      <c r="C83" s="92" t="s">
+        <v>238</v>
+      </c>
+      <c r="D83" s="90" t="s">
+        <v>406</v>
+      </c>
+      <c r="E83" s="91" t="s">
+        <v>413</v>
+      </c>
+      <c r="F83" s="52"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
@@ -22284,19 +22634,19 @@
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="1"/>
-      <c r="B84" s="83" t="s">
-        <v>136</v>
-      </c>
-      <c r="C84" s="87" t="s">
-        <v>240</v>
-      </c>
-      <c r="D84" s="85" t="s">
-        <v>401</v>
-      </c>
-      <c r="E84" s="86" t="s">
-        <v>411</v>
-      </c>
-      <c r="F84" s="47"/>
+      <c r="B84" s="88" t="s">
+        <v>138</v>
+      </c>
+      <c r="C84" s="92" t="s">
+        <v>238</v>
+      </c>
+      <c r="D84" s="90" t="s">
+        <v>414</v>
+      </c>
+      <c r="E84" s="91" t="s">
+        <v>415</v>
+      </c>
+      <c r="F84" s="52"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
@@ -22320,19 +22670,19 @@
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="1"/>
-      <c r="B85" s="83" t="s">
-        <v>136</v>
-      </c>
-      <c r="C85" s="87" t="s">
-        <v>240</v>
-      </c>
-      <c r="D85" s="85" t="s">
-        <v>412</v>
-      </c>
-      <c r="E85" s="86" t="s">
-        <v>413</v>
-      </c>
-      <c r="F85" s="47"/>
+      <c r="B85" s="88" t="s">
+        <v>138</v>
+      </c>
+      <c r="C85" s="92" t="s">
+        <v>242</v>
+      </c>
+      <c r="D85" s="90" t="s">
+        <v>406</v>
+      </c>
+      <c r="E85" s="91" t="s">
+        <v>416</v>
+      </c>
+      <c r="F85" s="52"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
@@ -22356,19 +22706,19 @@
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="1"/>
-      <c r="B86" s="83" t="s">
-        <v>136</v>
-      </c>
-      <c r="C86" s="87" t="s">
-        <v>244</v>
-      </c>
-      <c r="D86" s="85" t="s">
-        <v>414</v>
-      </c>
-      <c r="E86" s="86" t="s">
-        <v>415</v>
-      </c>
-      <c r="F86" s="47"/>
+      <c r="B86" s="88" t="s">
+        <v>138</v>
+      </c>
+      <c r="C86" s="92" t="s">
+        <v>242</v>
+      </c>
+      <c r="D86" s="90" t="s">
+        <v>417</v>
+      </c>
+      <c r="E86" s="91" t="s">
+        <v>418</v>
+      </c>
+      <c r="F86" s="52"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
@@ -22392,19 +22742,19 @@
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="1"/>
-      <c r="B87" s="83" t="s">
-        <v>136</v>
-      </c>
-      <c r="C87" s="87" t="s">
-        <v>244</v>
-      </c>
-      <c r="D87" s="85" t="s">
-        <v>416</v>
-      </c>
-      <c r="E87" s="86" t="s">
-        <v>417</v>
-      </c>
-      <c r="F87" s="47"/>
+      <c r="B87" s="88" t="s">
+        <v>138</v>
+      </c>
+      <c r="C87" s="92" t="s">
+        <v>246</v>
+      </c>
+      <c r="D87" s="90" t="s">
+        <v>419</v>
+      </c>
+      <c r="E87" s="91" t="s">
+        <v>420</v>
+      </c>
+      <c r="F87" s="52"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
@@ -22428,19 +22778,19 @@
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="1"/>
-      <c r="B88" s="83" t="s">
-        <v>136</v>
-      </c>
-      <c r="C88" s="87" t="s">
-        <v>248</v>
-      </c>
-      <c r="D88" s="85" t="s">
-        <v>418</v>
-      </c>
-      <c r="E88" s="86" t="s">
-        <v>419</v>
-      </c>
-      <c r="F88" s="47"/>
+      <c r="B88" s="88" t="s">
+        <v>138</v>
+      </c>
+      <c r="C88" s="92" t="s">
+        <v>246</v>
+      </c>
+      <c r="D88" s="90" t="s">
+        <v>421</v>
+      </c>
+      <c r="E88" s="91" t="s">
+        <v>422</v>
+      </c>
+      <c r="F88" s="52"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
@@ -22465,18 +22815,18 @@
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="1"/>
       <c r="B89" s="88" t="s">
-        <v>136</v>
-      </c>
-      <c r="C89" s="88" t="s">
-        <v>248</v>
-      </c>
-      <c r="D89" s="89" t="s">
-        <v>420</v>
-      </c>
-      <c r="E89" s="90" t="s">
-        <v>421</v>
-      </c>
-      <c r="F89" s="47"/>
+        <v>138</v>
+      </c>
+      <c r="C89" s="92" t="s">
+        <v>250</v>
+      </c>
+      <c r="D89" s="90" t="s">
+        <v>423</v>
+      </c>
+      <c r="E89" s="91" t="s">
+        <v>424</v>
+      </c>
+      <c r="F89" s="52"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
@@ -22500,11 +22850,19 @@
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
+      <c r="B90" s="93" t="s">
+        <v>138</v>
+      </c>
+      <c r="C90" s="93" t="s">
+        <v>250</v>
+      </c>
+      <c r="D90" s="94" t="s">
+        <v>425</v>
+      </c>
+      <c r="E90" s="95" t="s">
+        <v>426</v>
+      </c>
+      <c r="F90" s="52"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
@@ -22612,7 +22970,9 @@
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
+      <c r="B94" s="96" t="s">
+        <v>427</v>
+      </c>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
@@ -22640,11 +23000,21 @@
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
+      <c r="B95" s="35" t="s">
+        <v>275</v>
+      </c>
+      <c r="C95" s="35" t="s">
+        <v>276</v>
+      </c>
+      <c r="D95" s="35" t="s">
+        <v>277</v>
+      </c>
+      <c r="E95" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="F95" s="36" t="s">
+        <v>257</v>
+      </c>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
@@ -22668,11 +23038,21 @@
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
+      <c r="B96" s="37" t="s">
+        <v>278</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="D96" s="38" t="s">
+        <v>279</v>
+      </c>
+      <c r="E96" s="97" t="s">
+        <v>428</v>
+      </c>
+      <c r="F96" s="40" t="s">
+        <v>281</v>
+      </c>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
@@ -22696,11 +23076,21 @@
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
+      <c r="B97" s="41" t="s">
+        <v>278</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="D97" s="42" t="s">
+        <v>282</v>
+      </c>
+      <c r="E97" s="98" t="s">
+        <v>429</v>
+      </c>
+      <c r="F97" s="43" t="s">
+        <v>281</v>
+      </c>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
@@ -22724,11 +23114,21 @@
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
+      <c r="B98" s="41" t="s">
+        <v>278</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="D98" s="42" t="s">
+        <v>284</v>
+      </c>
+      <c r="E98" s="98" t="s">
+        <v>430</v>
+      </c>
+      <c r="F98" s="43" t="s">
+        <v>281</v>
+      </c>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
@@ -22752,11 +23152,21 @@
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
+      <c r="B99" s="44" t="s">
+        <v>286</v>
+      </c>
+      <c r="C99" s="45" t="s">
+        <v>278</v>
+      </c>
+      <c r="D99" s="45" t="s">
+        <v>278</v>
+      </c>
+      <c r="E99" s="46" t="s">
+        <v>431</v>
+      </c>
+      <c r="F99" s="47" t="s">
+        <v>432</v>
+      </c>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
@@ -22780,11 +23190,19 @@
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
+      <c r="B100" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="C100" s="49" t="s">
+        <v>289</v>
+      </c>
+      <c r="D100" s="50" t="s">
+        <v>290</v>
+      </c>
+      <c r="E100" s="99" t="s">
+        <v>433</v>
+      </c>
+      <c r="F100" s="52"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
@@ -22808,11 +23226,19 @@
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
+      <c r="B101" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="C101" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="D101" s="50" t="s">
+        <v>292</v>
+      </c>
+      <c r="E101" s="99" t="s">
+        <v>434</v>
+      </c>
+      <c r="F101" s="52"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
@@ -22836,11 +23262,19 @@
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
+      <c r="B102" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="C102" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="D102" s="50" t="s">
+        <v>294</v>
+      </c>
+      <c r="E102" s="99" t="s">
+        <v>435</v>
+      </c>
+      <c r="F102" s="52"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
@@ -22864,11 +23298,19 @@
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
+      <c r="B103" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="C103" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="D103" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="E103" s="99" t="s">
+        <v>436</v>
+      </c>
+      <c r="F103" s="52"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
@@ -22892,11 +23334,19 @@
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
+      <c r="B104" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="C104" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="D104" s="50" t="s">
+        <v>298</v>
+      </c>
+      <c r="E104" s="99" t="s">
+        <v>437</v>
+      </c>
+      <c r="F104" s="52"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
@@ -22920,11 +23370,19 @@
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="1"/>
-      <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
-      <c r="F105" s="1"/>
+      <c r="B105" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="C105" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="D105" s="50" t="s">
+        <v>300</v>
+      </c>
+      <c r="E105" s="99" t="s">
+        <v>438</v>
+      </c>
+      <c r="F105" s="52"/>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
@@ -22946,13 +23404,21 @@
       <c r="Y105" s="1"/>
       <c r="Z105" s="1"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106">
       <c r="A106" s="1"/>
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
+      <c r="B106" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="C106" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="D106" s="50" t="s">
+        <v>302</v>
+      </c>
+      <c r="E106" s="99" t="s">
+        <v>439</v>
+      </c>
+      <c r="F106" s="52"/>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
@@ -22976,11 +23442,19 @@
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="1"/>
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
-      <c r="F107" s="1"/>
+      <c r="B107" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="C107" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="D107" s="50" t="s">
+        <v>304</v>
+      </c>
+      <c r="E107" s="99" t="s">
+        <v>440</v>
+      </c>
+      <c r="F107" s="52"/>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
@@ -23004,11 +23478,19 @@
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="1"/>
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
-      <c r="F108" s="1"/>
+      <c r="B108" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="C108" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="D108" s="50" t="s">
+        <v>306</v>
+      </c>
+      <c r="E108" s="99" t="s">
+        <v>441</v>
+      </c>
+      <c r="F108" s="52"/>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
@@ -23032,11 +23514,19 @@
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
+      <c r="B109" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="C109" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="D109" s="50" t="s">
+        <v>308</v>
+      </c>
+      <c r="E109" s="99" t="s">
+        <v>442</v>
+      </c>
+      <c r="F109" s="52"/>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
@@ -23060,11 +23550,19 @@
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
-      <c r="F110" s="1"/>
+      <c r="B110" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="C110" s="55" t="s">
+        <v>159</v>
+      </c>
+      <c r="D110" s="56" t="s">
+        <v>310</v>
+      </c>
+      <c r="E110" s="100" t="s">
+        <v>443</v>
+      </c>
+      <c r="F110" s="52"/>
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
@@ -23088,11 +23586,19 @@
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="1"/>
-      <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-      <c r="E111" s="1"/>
-      <c r="F111" s="1"/>
+      <c r="B111" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="C111" s="55" t="s">
+        <v>159</v>
+      </c>
+      <c r="D111" s="56" t="s">
+        <v>312</v>
+      </c>
+      <c r="E111" s="100" t="s">
+        <v>444</v>
+      </c>
+      <c r="F111" s="52"/>
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
@@ -23116,11 +23622,19 @@
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="1"/>
-      <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-      <c r="E112" s="1"/>
-      <c r="F112" s="1"/>
+      <c r="B112" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="C112" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="D112" s="56" t="s">
+        <v>314</v>
+      </c>
+      <c r="E112" s="100" t="s">
+        <v>445</v>
+      </c>
+      <c r="F112" s="52"/>
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
@@ -23144,11 +23658,19 @@
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="1"/>
-      <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="1"/>
-      <c r="F113" s="1"/>
+      <c r="B113" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="C113" s="55" t="s">
+        <v>152</v>
+      </c>
+      <c r="D113" s="56" t="s">
+        <v>316</v>
+      </c>
+      <c r="E113" s="100" t="s">
+        <v>446</v>
+      </c>
+      <c r="F113" s="52"/>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
@@ -23172,11 +23694,19 @@
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="1"/>
-      <c r="B114" s="1"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-      <c r="E114" s="1"/>
-      <c r="F114" s="1"/>
+      <c r="B114" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="C114" s="59" t="s">
+        <v>289</v>
+      </c>
+      <c r="D114" s="60" t="s">
+        <v>318</v>
+      </c>
+      <c r="E114" s="101" t="s">
+        <v>447</v>
+      </c>
+      <c r="F114" s="52"/>
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
@@ -23200,11 +23730,19 @@
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="1"/>
-      <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
-      <c r="F115" s="1"/>
+      <c r="B115" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="C115" s="59" t="s">
+        <v>289</v>
+      </c>
+      <c r="D115" s="60" t="s">
+        <v>320</v>
+      </c>
+      <c r="E115" s="101" t="s">
+        <v>448</v>
+      </c>
+      <c r="F115" s="52"/>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
@@ -23228,11 +23766,19 @@
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="1"/>
-      <c r="B116" s="1"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
-      <c r="E116" s="1"/>
-      <c r="F116" s="1"/>
+      <c r="B116" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="C116" s="59" t="s">
+        <v>289</v>
+      </c>
+      <c r="D116" s="60" t="s">
+        <v>322</v>
+      </c>
+      <c r="E116" s="101" t="s">
+        <v>449</v>
+      </c>
+      <c r="F116" s="52"/>
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
@@ -23256,11 +23802,19 @@
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="1"/>
-      <c r="B117" s="1"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
-      <c r="E117" s="1"/>
-      <c r="F117" s="1"/>
+      <c r="B117" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="C117" s="59" t="s">
+        <v>289</v>
+      </c>
+      <c r="D117" s="60" t="s">
+        <v>324</v>
+      </c>
+      <c r="E117" s="101" t="s">
+        <v>450</v>
+      </c>
+      <c r="F117" s="52"/>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
@@ -23284,11 +23838,19 @@
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="1"/>
-      <c r="B118" s="1"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-      <c r="E118" s="1"/>
-      <c r="F118" s="1"/>
+      <c r="B118" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="C118" s="59" t="s">
+        <v>289</v>
+      </c>
+      <c r="D118" s="60" t="s">
+        <v>326</v>
+      </c>
+      <c r="E118" s="101" t="s">
+        <v>451</v>
+      </c>
+      <c r="F118" s="52"/>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
@@ -23312,11 +23874,19 @@
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="1"/>
-      <c r="B119" s="1"/>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
-      <c r="E119" s="1"/>
-      <c r="F119" s="1"/>
+      <c r="B119" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="C119" s="59" t="s">
+        <v>289</v>
+      </c>
+      <c r="D119" s="60" t="s">
+        <v>328</v>
+      </c>
+      <c r="E119" s="101" t="s">
+        <v>452</v>
+      </c>
+      <c r="F119" s="52"/>
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
@@ -23340,11 +23910,19 @@
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="1"/>
-      <c r="B120" s="1"/>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
-      <c r="E120" s="1"/>
-      <c r="F120" s="1"/>
+      <c r="B120" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="C120" s="63" t="s">
+        <v>164</v>
+      </c>
+      <c r="D120" s="64" t="s">
+        <v>330</v>
+      </c>
+      <c r="E120" s="102" t="s">
+        <v>453</v>
+      </c>
+      <c r="F120" s="52"/>
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
@@ -23368,11 +23946,19 @@
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="1"/>
-      <c r="B121" s="1"/>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
-      <c r="E121" s="1"/>
-      <c r="F121" s="1"/>
+      <c r="B121" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="C121" s="63" t="s">
+        <v>164</v>
+      </c>
+      <c r="D121" s="64" t="s">
+        <v>332</v>
+      </c>
+      <c r="E121" s="102" t="s">
+        <v>454</v>
+      </c>
+      <c r="F121" s="52"/>
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
@@ -23396,11 +23982,19 @@
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="1"/>
-      <c r="B122" s="1"/>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
-      <c r="E122" s="1"/>
-      <c r="F122" s="1"/>
+      <c r="B122" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="C122" s="63" t="s">
+        <v>164</v>
+      </c>
+      <c r="D122" s="64" t="s">
+        <v>334</v>
+      </c>
+      <c r="E122" s="102" t="s">
+        <v>455</v>
+      </c>
+      <c r="F122" s="52"/>
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
@@ -23424,11 +24018,19 @@
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="1"/>
-      <c r="B123" s="1"/>
-      <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
-      <c r="E123" s="1"/>
-      <c r="F123" s="1"/>
+      <c r="B123" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="C123" s="63" t="s">
+        <v>164</v>
+      </c>
+      <c r="D123" s="64" t="s">
+        <v>336</v>
+      </c>
+      <c r="E123" s="102" t="s">
+        <v>456</v>
+      </c>
+      <c r="F123" s="52"/>
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
@@ -23452,11 +24054,19 @@
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="1"/>
-      <c r="B124" s="1"/>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
-      <c r="E124" s="1"/>
-      <c r="F124" s="1"/>
+      <c r="B124" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="C124" s="63" t="s">
+        <v>168</v>
+      </c>
+      <c r="D124" s="64" t="s">
+        <v>338</v>
+      </c>
+      <c r="E124" s="102" t="s">
+        <v>457</v>
+      </c>
+      <c r="F124" s="52"/>
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
@@ -23480,11 +24090,19 @@
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="1"/>
-      <c r="B125" s="1"/>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
-      <c r="E125" s="1"/>
-      <c r="F125" s="1"/>
+      <c r="B125" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="C125" s="63" t="s">
+        <v>168</v>
+      </c>
+      <c r="D125" s="64" t="s">
+        <v>340</v>
+      </c>
+      <c r="E125" s="102" t="s">
+        <v>458</v>
+      </c>
+      <c r="F125" s="52"/>
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
@@ -23508,11 +24126,19 @@
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="1"/>
-      <c r="B126" s="1"/>
-      <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
-      <c r="E126" s="1"/>
-      <c r="F126" s="1"/>
+      <c r="B126" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="C126" s="63" t="s">
+        <v>168</v>
+      </c>
+      <c r="D126" s="64" t="s">
+        <v>342</v>
+      </c>
+      <c r="E126" s="102" t="s">
+        <v>459</v>
+      </c>
+      <c r="F126" s="52"/>
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
@@ -23536,11 +24162,19 @@
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="1"/>
-      <c r="B127" s="1"/>
-      <c r="C127" s="1"/>
-      <c r="D127" s="1"/>
-      <c r="E127" s="1"/>
-      <c r="F127" s="1"/>
+      <c r="B127" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="C127" s="63" t="s">
+        <v>168</v>
+      </c>
+      <c r="D127" s="64" t="s">
+        <v>344</v>
+      </c>
+      <c r="E127" s="102" t="s">
+        <v>460</v>
+      </c>
+      <c r="F127" s="52"/>
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
@@ -23564,11 +24198,19 @@
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="1"/>
-      <c r="B128" s="1"/>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
-      <c r="E128" s="1"/>
-      <c r="F128" s="1"/>
+      <c r="B128" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="C128" s="63" t="s">
+        <v>168</v>
+      </c>
+      <c r="D128" s="64" t="s">
+        <v>346</v>
+      </c>
+      <c r="E128" s="102" t="s">
+        <v>461</v>
+      </c>
+      <c r="F128" s="52"/>
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
@@ -23592,11 +24234,19 @@
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="1"/>
-      <c r="B129" s="1"/>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
-      <c r="E129" s="1"/>
-      <c r="F129" s="1"/>
+      <c r="B129" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="C129" s="63" t="s">
+        <v>172</v>
+      </c>
+      <c r="D129" s="64" t="s">
+        <v>348</v>
+      </c>
+      <c r="E129" s="102" t="s">
+        <v>462</v>
+      </c>
+      <c r="F129" s="52"/>
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
@@ -23620,11 +24270,19 @@
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="1"/>
-      <c r="B130" s="1"/>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
-      <c r="E130" s="1"/>
-      <c r="F130" s="1"/>
+      <c r="B130" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="C130" s="63" t="s">
+        <v>172</v>
+      </c>
+      <c r="D130" s="64" t="s">
+        <v>350</v>
+      </c>
+      <c r="E130" s="102" t="s">
+        <v>463</v>
+      </c>
+      <c r="F130" s="52"/>
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
@@ -23648,11 +24306,19 @@
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="1"/>
-      <c r="B131" s="1"/>
-      <c r="C131" s="1"/>
-      <c r="D131" s="1"/>
-      <c r="E131" s="1"/>
-      <c r="F131" s="1"/>
+      <c r="B131" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="C131" s="63" t="s">
+        <v>172</v>
+      </c>
+      <c r="D131" s="64" t="s">
+        <v>352</v>
+      </c>
+      <c r="E131" s="102" t="s">
+        <v>464</v>
+      </c>
+      <c r="F131" s="52"/>
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
@@ -23676,11 +24342,19 @@
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="1"/>
-      <c r="B132" s="1"/>
-      <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
-      <c r="E132" s="1"/>
-      <c r="F132" s="1"/>
+      <c r="B132" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="C132" s="63" t="s">
+        <v>176</v>
+      </c>
+      <c r="D132" s="64" t="s">
+        <v>354</v>
+      </c>
+      <c r="E132" s="102" t="s">
+        <v>465</v>
+      </c>
+      <c r="F132" s="52"/>
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
@@ -23704,11 +24378,19 @@
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="1"/>
-      <c r="B133" s="1"/>
-      <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
-      <c r="E133" s="1"/>
-      <c r="F133" s="1"/>
+      <c r="B133" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="C133" s="63" t="s">
+        <v>176</v>
+      </c>
+      <c r="D133" s="64" t="s">
+        <v>356</v>
+      </c>
+      <c r="E133" s="102" t="s">
+        <v>466</v>
+      </c>
+      <c r="F133" s="52"/>
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
@@ -23732,11 +24414,19 @@
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="1"/>
-      <c r="B134" s="1"/>
-      <c r="C134" s="1"/>
-      <c r="D134" s="1"/>
-      <c r="E134" s="1"/>
-      <c r="F134" s="1"/>
+      <c r="B134" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="C134" s="63" t="s">
+        <v>176</v>
+      </c>
+      <c r="D134" s="64" t="s">
+        <v>358</v>
+      </c>
+      <c r="E134" s="102" t="s">
+        <v>467</v>
+      </c>
+      <c r="F134" s="52"/>
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
@@ -23760,11 +24450,19 @@
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="1"/>
-      <c r="B135" s="1"/>
-      <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
-      <c r="E135" s="1"/>
-      <c r="F135" s="1"/>
+      <c r="B135" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="C135" s="67" t="s">
+        <v>181</v>
+      </c>
+      <c r="D135" s="68" t="s">
+        <v>360</v>
+      </c>
+      <c r="E135" s="103" t="s">
+        <v>468</v>
+      </c>
+      <c r="F135" s="52"/>
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
       <c r="I135" s="1"/>
@@ -23788,11 +24486,19 @@
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="1"/>
-      <c r="B136" s="1"/>
-      <c r="C136" s="1"/>
-      <c r="D136" s="1"/>
-      <c r="E136" s="1"/>
-      <c r="F136" s="1"/>
+      <c r="B136" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="C136" s="67" t="s">
+        <v>181</v>
+      </c>
+      <c r="D136" s="68" t="s">
+        <v>362</v>
+      </c>
+      <c r="E136" s="104" t="s">
+        <v>469</v>
+      </c>
+      <c r="F136" s="52"/>
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
@@ -23816,11 +24522,19 @@
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="1"/>
-      <c r="B137" s="1"/>
-      <c r="C137" s="1"/>
-      <c r="D137" s="1"/>
-      <c r="E137" s="1"/>
-      <c r="F137" s="1"/>
+      <c r="B137" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="C137" s="67" t="s">
+        <v>184</v>
+      </c>
+      <c r="D137" s="68" t="s">
+        <v>364</v>
+      </c>
+      <c r="E137" s="104" t="s">
+        <v>470</v>
+      </c>
+      <c r="F137" s="52"/>
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
@@ -23844,11 +24558,19 @@
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="1"/>
-      <c r="B138" s="1"/>
-      <c r="C138" s="1"/>
-      <c r="D138" s="1"/>
-      <c r="E138" s="1"/>
-      <c r="F138" s="1"/>
+      <c r="B138" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="C138" s="67" t="s">
+        <v>184</v>
+      </c>
+      <c r="D138" s="68" t="s">
+        <v>366</v>
+      </c>
+      <c r="E138" s="104" t="s">
+        <v>471</v>
+      </c>
+      <c r="F138" s="52"/>
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
@@ -23872,11 +24594,19 @@
     </row>
     <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="1"/>
-      <c r="B139" s="1"/>
-      <c r="C139" s="1"/>
-      <c r="D139" s="1"/>
-      <c r="E139" s="1"/>
-      <c r="F139" s="1"/>
+      <c r="B139" s="71" t="s">
+        <v>124</v>
+      </c>
+      <c r="C139" s="72" t="s">
+        <v>289</v>
+      </c>
+      <c r="D139" s="73" t="s">
+        <v>368</v>
+      </c>
+      <c r="E139" s="105" t="s">
+        <v>472</v>
+      </c>
+      <c r="F139" s="52"/>
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
@@ -23900,11 +24630,19 @@
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="1"/>
-      <c r="B140" s="1"/>
-      <c r="C140" s="1"/>
-      <c r="D140" s="1"/>
-      <c r="E140" s="1"/>
-      <c r="F140" s="1"/>
+      <c r="B140" s="71" t="s">
+        <v>124</v>
+      </c>
+      <c r="C140" s="72" t="s">
+        <v>289</v>
+      </c>
+      <c r="D140" s="73" t="s">
+        <v>370</v>
+      </c>
+      <c r="E140" s="105" t="s">
+        <v>473</v>
+      </c>
+      <c r="F140" s="52"/>
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
@@ -23928,11 +24666,19 @@
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="1"/>
-      <c r="B141" s="1"/>
-      <c r="C141" s="1"/>
-      <c r="D141" s="1"/>
-      <c r="E141" s="1"/>
-      <c r="F141" s="1"/>
+      <c r="B141" s="71" t="s">
+        <v>124</v>
+      </c>
+      <c r="C141" s="72" t="s">
+        <v>188</v>
+      </c>
+      <c r="D141" s="73" t="s">
+        <v>372</v>
+      </c>
+      <c r="E141" s="105" t="s">
+        <v>474</v>
+      </c>
+      <c r="F141" s="52"/>
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
@@ -23956,11 +24702,19 @@
     </row>
     <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="1"/>
-      <c r="B142" s="1"/>
-      <c r="C142" s="1"/>
-      <c r="D142" s="1"/>
-      <c r="E142" s="1"/>
-      <c r="F142" s="1"/>
+      <c r="B142" s="71" t="s">
+        <v>124</v>
+      </c>
+      <c r="C142" s="72" t="s">
+        <v>192</v>
+      </c>
+      <c r="D142" s="73" t="s">
+        <v>374</v>
+      </c>
+      <c r="E142" s="105" t="s">
+        <v>475</v>
+      </c>
+      <c r="F142" s="52"/>
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
@@ -23984,11 +24738,19 @@
     </row>
     <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="1"/>
-      <c r="B143" s="1"/>
-      <c r="C143" s="1"/>
-      <c r="D143" s="1"/>
-      <c r="E143" s="1"/>
-      <c r="F143" s="1"/>
+      <c r="B143" s="71" t="s">
+        <v>124</v>
+      </c>
+      <c r="C143" s="72" t="s">
+        <v>195</v>
+      </c>
+      <c r="D143" s="73" t="s">
+        <v>374</v>
+      </c>
+      <c r="E143" s="105" t="s">
+        <v>476</v>
+      </c>
+      <c r="F143" s="52"/>
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
@@ -24012,11 +24774,19 @@
     </row>
     <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="1"/>
-      <c r="B144" s="1"/>
-      <c r="C144" s="1"/>
-      <c r="D144" s="1"/>
-      <c r="E144" s="1"/>
-      <c r="F144" s="1"/>
+      <c r="B144" s="71" t="s">
+        <v>124</v>
+      </c>
+      <c r="C144" s="72" t="s">
+        <v>199</v>
+      </c>
+      <c r="D144" s="73" t="s">
+        <v>377</v>
+      </c>
+      <c r="E144" s="105" t="s">
+        <v>477</v>
+      </c>
+      <c r="F144" s="52"/>
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
@@ -24040,11 +24810,19 @@
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="1"/>
-      <c r="B145" s="1"/>
-      <c r="C145" s="1"/>
-      <c r="D145" s="1"/>
-      <c r="E145" s="1"/>
-      <c r="F145" s="1"/>
+      <c r="B145" s="71" t="s">
+        <v>124</v>
+      </c>
+      <c r="C145" s="72" t="s">
+        <v>199</v>
+      </c>
+      <c r="D145" s="73" t="s">
+        <v>379</v>
+      </c>
+      <c r="E145" s="105" t="s">
+        <v>478</v>
+      </c>
+      <c r="F145" s="52"/>
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
@@ -24068,11 +24846,19 @@
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="1"/>
-      <c r="B146" s="1"/>
-      <c r="C146" s="1"/>
-      <c r="D146" s="1"/>
-      <c r="E146" s="1"/>
-      <c r="F146" s="1"/>
+      <c r="B146" s="71" t="s">
+        <v>124</v>
+      </c>
+      <c r="C146" s="72" t="s">
+        <v>199</v>
+      </c>
+      <c r="D146" s="73" t="s">
+        <v>381</v>
+      </c>
+      <c r="E146" s="105" t="s">
+        <v>479</v>
+      </c>
+      <c r="F146" s="52"/>
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
@@ -24096,11 +24882,19 @@
     </row>
     <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="1"/>
-      <c r="B147" s="1"/>
-      <c r="C147" s="1"/>
-      <c r="D147" s="1"/>
-      <c r="E147" s="1"/>
-      <c r="F147" s="1"/>
+      <c r="B147" s="75" t="s">
+        <v>127</v>
+      </c>
+      <c r="C147" s="76" t="s">
+        <v>207</v>
+      </c>
+      <c r="D147" s="77" t="s">
+        <v>383</v>
+      </c>
+      <c r="E147" s="106" t="s">
+        <v>480</v>
+      </c>
+      <c r="F147" s="52"/>
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
@@ -24124,11 +24918,19 @@
     </row>
     <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="1"/>
-      <c r="B148" s="1"/>
-      <c r="C148" s="1"/>
-      <c r="D148" s="1"/>
-      <c r="E148" s="1"/>
-      <c r="F148" s="1"/>
+      <c r="B148" s="75" t="s">
+        <v>127</v>
+      </c>
+      <c r="C148" s="76" t="s">
+        <v>207</v>
+      </c>
+      <c r="D148" s="77" t="s">
+        <v>385</v>
+      </c>
+      <c r="E148" s="106" t="s">
+        <v>481</v>
+      </c>
+      <c r="F148" s="52"/>
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
@@ -24152,11 +24954,19 @@
     </row>
     <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="1"/>
-      <c r="B149" s="1"/>
-      <c r="C149" s="1"/>
-      <c r="D149" s="1"/>
-      <c r="E149" s="1"/>
-      <c r="F149" s="1"/>
+      <c r="B149" s="75" t="s">
+        <v>127</v>
+      </c>
+      <c r="C149" s="76" t="s">
+        <v>204</v>
+      </c>
+      <c r="D149" s="77" t="s">
+        <v>387</v>
+      </c>
+      <c r="E149" s="106" t="s">
+        <v>482</v>
+      </c>
+      <c r="F149" s="52"/>
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
@@ -24180,11 +24990,19 @@
     </row>
     <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="1"/>
-      <c r="B150" s="1"/>
-      <c r="C150" s="1"/>
-      <c r="D150" s="1"/>
-      <c r="E150" s="1"/>
-      <c r="F150" s="1"/>
+      <c r="B150" s="79" t="s">
+        <v>134</v>
+      </c>
+      <c r="C150" s="80" t="s">
+        <v>222</v>
+      </c>
+      <c r="D150" s="81" t="s">
+        <v>389</v>
+      </c>
+      <c r="E150" s="107" t="s">
+        <v>483</v>
+      </c>
+      <c r="F150" s="52"/>
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
@@ -24208,11 +25026,19 @@
     </row>
     <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="1"/>
-      <c r="B151" s="1"/>
-      <c r="C151" s="1"/>
-      <c r="D151" s="1"/>
-      <c r="E151" s="1"/>
-      <c r="F151" s="1"/>
+      <c r="B151" s="79" t="s">
+        <v>134</v>
+      </c>
+      <c r="C151" s="80" t="s">
+        <v>219</v>
+      </c>
+      <c r="D151" s="81" t="s">
+        <v>391</v>
+      </c>
+      <c r="E151" s="107" t="s">
+        <v>484</v>
+      </c>
+      <c r="F151" s="52"/>
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
@@ -24236,11 +25062,19 @@
     </row>
     <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="1"/>
-      <c r="B152" s="1"/>
-      <c r="C152" s="1"/>
-      <c r="D152" s="1"/>
-      <c r="E152" s="1"/>
-      <c r="F152" s="1"/>
+      <c r="B152" s="79" t="s">
+        <v>134</v>
+      </c>
+      <c r="C152" s="83" t="s">
+        <v>289</v>
+      </c>
+      <c r="D152" s="81" t="s">
+        <v>393</v>
+      </c>
+      <c r="E152" s="107" t="s">
+        <v>485</v>
+      </c>
+      <c r="F152" s="52"/>
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
@@ -24264,11 +25098,19 @@
     </row>
     <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="1"/>
-      <c r="B153" s="1"/>
-      <c r="C153" s="1"/>
-      <c r="D153" s="1"/>
-      <c r="E153" s="1"/>
-      <c r="F153" s="1"/>
+      <c r="B153" s="79" t="s">
+        <v>134</v>
+      </c>
+      <c r="C153" s="80" t="s">
+        <v>226</v>
+      </c>
+      <c r="D153" s="81" t="s">
+        <v>395</v>
+      </c>
+      <c r="E153" s="107" t="s">
+        <v>486</v>
+      </c>
+      <c r="F153" s="52"/>
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
@@ -24292,11 +25134,19 @@
     </row>
     <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="1"/>
-      <c r="B154" s="1"/>
-      <c r="C154" s="1"/>
-      <c r="D154" s="1"/>
-      <c r="E154" s="1"/>
-      <c r="F154" s="1"/>
+      <c r="B154" s="84" t="s">
+        <v>131</v>
+      </c>
+      <c r="C154" s="85" t="s">
+        <v>211</v>
+      </c>
+      <c r="D154" s="86" t="s">
+        <v>397</v>
+      </c>
+      <c r="E154" s="108" t="s">
+        <v>487</v>
+      </c>
+      <c r="F154" s="52"/>
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
@@ -24320,11 +25170,19 @@
     </row>
     <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="1"/>
-      <c r="B155" s="1"/>
-      <c r="C155" s="1"/>
-      <c r="D155" s="1"/>
-      <c r="E155" s="1"/>
-      <c r="F155" s="1"/>
+      <c r="B155" s="84" t="s">
+        <v>131</v>
+      </c>
+      <c r="C155" s="85" t="s">
+        <v>211</v>
+      </c>
+      <c r="D155" s="86" t="s">
+        <v>399</v>
+      </c>
+      <c r="E155" s="108" t="s">
+        <v>488</v>
+      </c>
+      <c r="F155" s="52"/>
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
@@ -24348,11 +25206,19 @@
     </row>
     <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="1"/>
-      <c r="B156" s="1"/>
-      <c r="C156" s="1"/>
-      <c r="D156" s="1"/>
-      <c r="E156" s="1"/>
-      <c r="F156" s="1"/>
+      <c r="B156" s="84" t="s">
+        <v>131</v>
+      </c>
+      <c r="C156" s="85" t="s">
+        <v>214</v>
+      </c>
+      <c r="D156" s="86" t="s">
+        <v>397</v>
+      </c>
+      <c r="E156" s="108" t="s">
+        <v>489</v>
+      </c>
+      <c r="F156" s="52"/>
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
@@ -24376,11 +25242,19 @@
     </row>
     <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="1"/>
-      <c r="B157" s="1"/>
-      <c r="C157" s="1"/>
-      <c r="D157" s="1"/>
-      <c r="E157" s="1"/>
-      <c r="F157" s="1"/>
+      <c r="B157" s="88" t="s">
+        <v>138</v>
+      </c>
+      <c r="C157" s="89" t="s">
+        <v>230</v>
+      </c>
+      <c r="D157" s="90" t="s">
+        <v>402</v>
+      </c>
+      <c r="E157" s="109" t="s">
+        <v>490</v>
+      </c>
+      <c r="F157" s="52"/>
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
@@ -24404,11 +25278,19 @@
     </row>
     <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="1"/>
-      <c r="B158" s="1"/>
-      <c r="C158" s="1"/>
-      <c r="D158" s="1"/>
-      <c r="E158" s="1"/>
-      <c r="F158" s="1"/>
+      <c r="B158" s="88" t="s">
+        <v>138</v>
+      </c>
+      <c r="C158" s="89" t="s">
+        <v>230</v>
+      </c>
+      <c r="D158" s="90" t="s">
+        <v>404</v>
+      </c>
+      <c r="E158" s="109" t="s">
+        <v>491</v>
+      </c>
+      <c r="F158" s="52"/>
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
@@ -24432,11 +25314,19 @@
     </row>
     <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="1"/>
-      <c r="B159" s="1"/>
-      <c r="C159" s="1"/>
-      <c r="D159" s="1"/>
-      <c r="E159" s="1"/>
-      <c r="F159" s="1"/>
+      <c r="B159" s="88" t="s">
+        <v>138</v>
+      </c>
+      <c r="C159" s="89" t="s">
+        <v>233</v>
+      </c>
+      <c r="D159" s="90" t="s">
+        <v>406</v>
+      </c>
+      <c r="E159" s="109" t="s">
+        <v>492</v>
+      </c>
+      <c r="F159" s="52"/>
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
       <c r="I159" s="1"/>
@@ -24460,11 +25350,19 @@
     </row>
     <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="1"/>
-      <c r="B160" s="1"/>
-      <c r="C160" s="1"/>
-      <c r="D160" s="1"/>
-      <c r="E160" s="1"/>
-      <c r="F160" s="1"/>
+      <c r="B160" s="88" t="s">
+        <v>138</v>
+      </c>
+      <c r="C160" s="89" t="s">
+        <v>233</v>
+      </c>
+      <c r="D160" s="90" t="s">
+        <v>408</v>
+      </c>
+      <c r="E160" s="109" t="s">
+        <v>493</v>
+      </c>
+      <c r="F160" s="52"/>
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
@@ -24488,11 +25386,19 @@
     </row>
     <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="1"/>
-      <c r="B161" s="1"/>
-      <c r="C161" s="1"/>
-      <c r="D161" s="1"/>
-      <c r="E161" s="1"/>
-      <c r="F161" s="1"/>
+      <c r="B161" s="88" t="s">
+        <v>138</v>
+      </c>
+      <c r="C161" s="89" t="s">
+        <v>235</v>
+      </c>
+      <c r="D161" s="90" t="s">
+        <v>406</v>
+      </c>
+      <c r="E161" s="109" t="s">
+        <v>494</v>
+      </c>
+      <c r="F161" s="52"/>
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
       <c r="I161" s="1"/>
@@ -24516,11 +25422,19 @@
     </row>
     <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="1"/>
-      <c r="B162" s="1"/>
-      <c r="C162" s="1"/>
-      <c r="D162" s="1"/>
-      <c r="E162" s="1"/>
-      <c r="F162" s="1"/>
+      <c r="B162" s="88" t="s">
+        <v>138</v>
+      </c>
+      <c r="C162" s="89" t="s">
+        <v>235</v>
+      </c>
+      <c r="D162" s="90" t="s">
+        <v>411</v>
+      </c>
+      <c r="E162" s="109" t="s">
+        <v>495</v>
+      </c>
+      <c r="F162" s="52"/>
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
       <c r="I162" s="1"/>
@@ -24544,11 +25458,19 @@
     </row>
     <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="1"/>
-      <c r="B163" s="1"/>
-      <c r="C163" s="1"/>
-      <c r="D163" s="1"/>
-      <c r="E163" s="1"/>
-      <c r="F163" s="1"/>
+      <c r="B163" s="88" t="s">
+        <v>138</v>
+      </c>
+      <c r="C163" s="92" t="s">
+        <v>238</v>
+      </c>
+      <c r="D163" s="90" t="s">
+        <v>406</v>
+      </c>
+      <c r="E163" s="109" t="s">
+        <v>496</v>
+      </c>
+      <c r="F163" s="52"/>
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
       <c r="I163" s="1"/>
@@ -24572,11 +25494,19 @@
     </row>
     <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="1"/>
-      <c r="B164" s="1"/>
-      <c r="C164" s="1"/>
-      <c r="D164" s="1"/>
-      <c r="E164" s="1"/>
-      <c r="F164" s="1"/>
+      <c r="B164" s="88" t="s">
+        <v>138</v>
+      </c>
+      <c r="C164" s="92" t="s">
+        <v>238</v>
+      </c>
+      <c r="D164" s="90" t="s">
+        <v>414</v>
+      </c>
+      <c r="E164" s="109" t="s">
+        <v>497</v>
+      </c>
+      <c r="F164" s="52"/>
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
@@ -24600,11 +25530,19 @@
     </row>
     <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="1"/>
-      <c r="B165" s="1"/>
-      <c r="C165" s="1"/>
-      <c r="D165" s="1"/>
-      <c r="E165" s="1"/>
-      <c r="F165" s="1"/>
+      <c r="B165" s="88" t="s">
+        <v>138</v>
+      </c>
+      <c r="C165" s="92" t="s">
+        <v>242</v>
+      </c>
+      <c r="D165" s="90" t="s">
+        <v>406</v>
+      </c>
+      <c r="E165" s="109" t="s">
+        <v>498</v>
+      </c>
+      <c r="F165" s="52"/>
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
@@ -24628,11 +25566,19 @@
     </row>
     <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="1"/>
-      <c r="B166" s="1"/>
-      <c r="C166" s="1"/>
-      <c r="D166" s="1"/>
-      <c r="E166" s="1"/>
-      <c r="F166" s="1"/>
+      <c r="B166" s="88" t="s">
+        <v>138</v>
+      </c>
+      <c r="C166" s="92" t="s">
+        <v>242</v>
+      </c>
+      <c r="D166" s="90" t="s">
+        <v>417</v>
+      </c>
+      <c r="E166" s="109" t="s">
+        <v>499</v>
+      </c>
+      <c r="F166" s="52"/>
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
       <c r="I166" s="1"/>
@@ -24656,11 +25602,19 @@
     </row>
     <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="1"/>
-      <c r="B167" s="1"/>
-      <c r="C167" s="1"/>
-      <c r="D167" s="1"/>
-      <c r="E167" s="1"/>
-      <c r="F167" s="1"/>
+      <c r="B167" s="88" t="s">
+        <v>138</v>
+      </c>
+      <c r="C167" s="92" t="s">
+        <v>246</v>
+      </c>
+      <c r="D167" s="90" t="s">
+        <v>419</v>
+      </c>
+      <c r="E167" s="109" t="s">
+        <v>500</v>
+      </c>
+      <c r="F167" s="52"/>
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
       <c r="I167" s="1"/>
@@ -24684,11 +25638,19 @@
     </row>
     <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="1"/>
-      <c r="B168" s="1"/>
-      <c r="C168" s="1"/>
-      <c r="D168" s="1"/>
-      <c r="E168" s="1"/>
-      <c r="F168" s="1"/>
+      <c r="B168" s="88" t="s">
+        <v>138</v>
+      </c>
+      <c r="C168" s="92" t="s">
+        <v>246</v>
+      </c>
+      <c r="D168" s="90" t="s">
+        <v>421</v>
+      </c>
+      <c r="E168" s="109" t="s">
+        <v>501</v>
+      </c>
+      <c r="F168" s="52"/>
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
@@ -24712,11 +25674,19 @@
     </row>
     <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="1"/>
-      <c r="B169" s="1"/>
-      <c r="C169" s="1"/>
-      <c r="D169" s="1"/>
-      <c r="E169" s="1"/>
-      <c r="F169" s="1"/>
+      <c r="B169" s="88" t="s">
+        <v>138</v>
+      </c>
+      <c r="C169" s="92" t="s">
+        <v>250</v>
+      </c>
+      <c r="D169" s="90" t="s">
+        <v>423</v>
+      </c>
+      <c r="E169" s="109" t="s">
+        <v>502</v>
+      </c>
+      <c r="F169" s="52"/>
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
       <c r="I169" s="1"/>
@@ -24740,11 +25710,19 @@
     </row>
     <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="1"/>
-      <c r="B170" s="1"/>
-      <c r="C170" s="1"/>
-      <c r="D170" s="1"/>
-      <c r="E170" s="1"/>
-      <c r="F170" s="1"/>
+      <c r="B170" s="93" t="s">
+        <v>138</v>
+      </c>
+      <c r="C170" s="93" t="s">
+        <v>250</v>
+      </c>
+      <c r="D170" s="94" t="s">
+        <v>425</v>
+      </c>
+      <c r="E170" s="110" t="s">
+        <v>503</v>
+      </c>
+      <c r="F170" s="52"/>
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
       <c r="I170" s="1"/>
@@ -28098,7 +29076,34 @@
       <c r="Y289" s="1"/>
       <c r="Z289" s="1"/>
     </row>
-    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1">
+      <c r="A290" s="1"/>
+      <c r="B290" s="1"/>
+      <c r="C290" s="1"/>
+      <c r="D290" s="1"/>
+      <c r="E290" s="1"/>
+      <c r="F290" s="1"/>
+      <c r="G290" s="1"/>
+      <c r="H290" s="1"/>
+      <c r="I290" s="1"/>
+      <c r="J290" s="1"/>
+      <c r="K290" s="1"/>
+      <c r="L290" s="1"/>
+      <c r="M290" s="1"/>
+      <c r="N290" s="1"/>
+      <c r="O290" s="1"/>
+      <c r="P290" s="1"/>
+      <c r="Q290" s="1"/>
+      <c r="R290" s="1"/>
+      <c r="S290" s="1"/>
+      <c r="T290" s="1"/>
+      <c r="U290" s="1"/>
+      <c r="V290" s="1"/>
+      <c r="W290" s="1"/>
+      <c r="X290" s="1"/>
+      <c r="Y290" s="1"/>
+      <c r="Z290" s="1"/>
+    </row>
     <row r="291" ht="15.75" customHeight="1"/>
     <row r="292" ht="15.75" customHeight="1"/>
     <row r="293" ht="15.75" customHeight="1"/>
@@ -28809,6 +29814,7 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
